--- a/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9981893387767063</v>
+      </c>
+      <c r="D3">
+        <v>1.001860695444487</v>
+      </c>
+      <c r="E3">
         <v>1.001093927610886</v>
       </c>
-      <c r="D3">
-        <v>0.9965148358606675</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1.000842643944543</v>
+      </c>
+      <c r="G3">
+        <v>0.9965148358606667</v>
+      </c>
+      <c r="H3">
         <v>1.000739236266488</v>
       </c>
-      <c r="F3">
+      <c r="I3">
+        <v>0.9965148358606667</v>
+      </c>
+      <c r="J3">
         <v>1.001093927610886</v>
-      </c>
-      <c r="G3">
-        <v>1.001860695444487</v>
-      </c>
-      <c r="H3">
-        <v>0.9981893387767066</v>
-      </c>
-      <c r="I3">
-        <v>1.000842643944543</v>
-      </c>
-      <c r="J3">
-        <v>0.9965148358606675</v>
       </c>
       <c r="K3">
         <v>1.001093927610886</v>
@@ -704,31 +656,31 @@
         <v>1.000739236266488</v>
       </c>
       <c r="M3">
-        <v>0.9986270360635775</v>
+        <v>0.9986270360635772</v>
       </c>
       <c r="N3">
-        <v>0.9986270360635775</v>
+        <v>0.9986270360635772</v>
       </c>
       <c r="O3">
-        <v>0.9984811369679538</v>
+        <v>0.9984811369679535</v>
       </c>
       <c r="P3">
-        <v>0.9994493332460138</v>
+        <v>0.9994493332460136</v>
       </c>
       <c r="Q3">
-        <v>0.9994493332460138</v>
+        <v>0.9994493332460136</v>
       </c>
       <c r="R3">
-        <v>0.999860481837232</v>
+        <v>0.9998604818372318</v>
       </c>
       <c r="S3">
-        <v>0.999860481837232</v>
+        <v>0.9998604818372318</v>
       </c>
       <c r="T3">
-        <v>0.9998734463172965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9998734463172961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9965033106417149</v>
+      </c>
+      <c r="D4">
+        <v>1.00356694026398</v>
+      </c>
+      <c r="E4">
         <v>1.002138434282135</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.001627817092831</v>
+      </c>
+      <c r="G4">
         <v>0.993261476598603</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>1.001417687597225</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0.993261476598603</v>
+      </c>
+      <c r="J4">
         <v>1.002138434282135</v>
-      </c>
-      <c r="G4">
-        <v>1.00356694026398</v>
-      </c>
-      <c r="H4">
-        <v>0.9965033106417149</v>
-      </c>
-      <c r="I4">
-        <v>1.001627817092831</v>
-      </c>
-      <c r="J4">
-        <v>0.993261476598603</v>
       </c>
       <c r="K4">
         <v>1.002138434282135</v>
@@ -790,7 +742,7 @@
         <v>0.9997526110794149</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9933032741436865</v>
+      </c>
+      <c r="D5">
+        <v>1.006949399877729</v>
+      </c>
+      <c r="E5">
         <v>1.003988096593923</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.003113210143855</v>
+      </c>
+      <c r="G5">
         <v>0.9871445274565329</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.002753180749393</v>
       </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0.9871445274565329</v>
+      </c>
+      <c r="J5">
         <v>1.003988096593923</v>
-      </c>
-      <c r="G5">
-        <v>1.006949399877729</v>
-      </c>
-      <c r="H5">
-        <v>0.9933032741436865</v>
-      </c>
-      <c r="I5">
-        <v>1.003113210143855</v>
-      </c>
-      <c r="J5">
-        <v>0.9871445274565329</v>
       </c>
       <c r="K5">
         <v>1.003988096593923</v>
@@ -852,7 +804,7 @@
         <v>0.9995419481608532</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9901799858163755</v>
+      </c>
+      <c r="D6">
+        <v>1.010241815161536</v>
+      </c>
+      <c r="E6">
         <v>1.005800892374116</v>
       </c>
-      <c r="D6">
-        <v>0.9811694820443064</v>
-      </c>
-      <c r="E6">
+      <c r="F6">
+        <v>1.004563445396709</v>
+      </c>
+      <c r="G6">
+        <v>0.9811694820443065</v>
+      </c>
+      <c r="H6">
         <v>1.004054233546591</v>
       </c>
-      <c r="F6">
+      <c r="I6">
+        <v>0.9811694820443065</v>
+      </c>
+      <c r="J6">
         <v>1.005800892374116</v>
-      </c>
-      <c r="G6">
-        <v>1.010241815161536</v>
-      </c>
-      <c r="H6">
-        <v>0.9901799858163755</v>
-      </c>
-      <c r="I6">
-        <v>1.004563445396709</v>
-      </c>
-      <c r="J6">
-        <v>0.9811694820443064</v>
       </c>
       <c r="K6">
         <v>1.005800892374116</v>
@@ -914,7 +866,7 @@
         <v>0.9993349757232725</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9998624887471688</v>
+      </c>
+      <c r="D7">
+        <v>1.000182920673355</v>
+      </c>
+      <c r="E7">
         <v>1.000047313612902</v>
       </c>
-      <c r="D7">
-        <v>0.999756146567357</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
+        <v>1.00006200988025</v>
+      </c>
+      <c r="G7">
+        <v>0.9997561465673568</v>
+      </c>
+      <c r="H7">
         <v>1.000068057784393</v>
       </c>
-      <c r="F7">
+      <c r="I7">
+        <v>0.9997561465673568</v>
+      </c>
+      <c r="J7">
         <v>1.000047313612902</v>
-      </c>
-      <c r="G7">
-        <v>1.000182920673355</v>
-      </c>
-      <c r="H7">
-        <v>0.9998624887471688</v>
-      </c>
-      <c r="I7">
-        <v>1.00006200988025</v>
-      </c>
-      <c r="J7">
-        <v>0.999756146567357</v>
       </c>
       <c r="K7">
         <v>1.000047313612902</v>
@@ -952,10 +904,10 @@
         <v>1.000068057784393</v>
       </c>
       <c r="M7">
-        <v>0.9999121021758748</v>
+        <v>0.9999121021758747</v>
       </c>
       <c r="N7">
-        <v>0.9999121021758748</v>
+        <v>0.9999121021758747</v>
       </c>
       <c r="O7">
         <v>0.9998955643663061</v>
@@ -976,7 +928,7 @@
         <v>0.9999964895442376</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9996004369912048</v>
+      </c>
+      <c r="D8">
+        <v>1.000500468191307</v>
+      </c>
+      <c r="E8">
         <v>1.000165352751655</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1.000181389717294</v>
+      </c>
+      <c r="G8">
         <v>0.9992778076594167</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.000187989601193</v>
       </c>
-      <c r="F8">
+      <c r="I8">
+        <v>0.9992778076594167</v>
+      </c>
+      <c r="J8">
         <v>1.000165352751655</v>
-      </c>
-      <c r="G8">
-        <v>1.000500468191307</v>
-      </c>
-      <c r="H8">
-        <v>0.9996004369912053</v>
-      </c>
-      <c r="I8">
-        <v>1.000181389717294</v>
-      </c>
-      <c r="J8">
-        <v>0.9992778076594167</v>
       </c>
       <c r="K8">
         <v>1.000165352751655</v>
@@ -1020,7 +972,7 @@
         <v>0.9997328986303049</v>
       </c>
       <c r="O8">
-        <v>0.9996887447506051</v>
+        <v>0.9996887447506048</v>
       </c>
       <c r="P8">
         <v>0.9998770500040884</v>
@@ -1035,10 +987,10 @@
         <v>0.9999491256909802</v>
       </c>
       <c r="T8">
-        <v>0.9999855741520119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999855741520118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9994468172367945</v>
+      </c>
+      <c r="D9">
+        <v>1.000639723172285</v>
+      </c>
+      <c r="E9">
         <v>1.000276831335572</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000253163667829</v>
+      </c>
+      <c r="G9">
         <v>0.9989770611064386</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>1.000243423055616</v>
       </c>
-      <c r="F9">
+      <c r="I9">
+        <v>0.9989770611064386</v>
+      </c>
+      <c r="J9">
         <v>1.000276831335572</v>
-      </c>
-      <c r="G9">
-        <v>1.000639723172285</v>
-      </c>
-      <c r="H9">
-        <v>0.9994468172367945</v>
-      </c>
-      <c r="I9">
-        <v>1.000253163667829</v>
-      </c>
-      <c r="J9">
-        <v>0.9989770611064386</v>
       </c>
       <c r="K9">
         <v>1.000276831335572</v>
@@ -1091,16 +1043,16 @@
         <v>0.9998324384992087</v>
       </c>
       <c r="R9">
-        <v>0.9999435367082995</v>
+        <v>0.9999435367082996</v>
       </c>
       <c r="S9">
-        <v>0.9999435367082995</v>
+        <v>0.9999435367082996</v>
       </c>
       <c r="T9">
         <v>0.9999728365957558</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9988066063677995</v>
+      </c>
+      <c r="D10">
+        <v>1.001444799483243</v>
+      </c>
+      <c r="E10">
         <v>1.000538981586816</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.000543660657417</v>
+      </c>
+      <c r="G10">
         <v>0.9978214187162568</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>1.000545585270028</v>
       </c>
-      <c r="F10">
+      <c r="I10">
+        <v>0.9978214187162568</v>
+      </c>
+      <c r="J10">
         <v>1.000538981586816</v>
-      </c>
-      <c r="G10">
-        <v>1.001444799483243</v>
-      </c>
-      <c r="H10">
-        <v>0.9988066063677995</v>
-      </c>
-      <c r="I10">
-        <v>1.000543660657417</v>
-      </c>
-      <c r="J10">
-        <v>0.9978214187162568</v>
       </c>
       <c r="K10">
         <v>1.000538981586816</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999501753469268</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9979959229610685</v>
+      </c>
+      <c r="D11">
+        <v>1.002262408679872</v>
+      </c>
+      <c r="E11">
         <v>1.00105209040696</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.00091939972264</v>
+      </c>
+      <c r="G11">
         <v>0.9962692303068511</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.000864797392944</v>
       </c>
-      <c r="F11">
+      <c r="I11">
+        <v>0.9962692303068511</v>
+      </c>
+      <c r="J11">
         <v>1.00105209040696</v>
-      </c>
-      <c r="G11">
-        <v>1.002262408679872</v>
-      </c>
-      <c r="H11">
-        <v>0.9979959229610685</v>
-      </c>
-      <c r="I11">
-        <v>1.00091939972264</v>
-      </c>
-      <c r="J11">
-        <v>0.9962692303068511</v>
       </c>
       <c r="K11">
         <v>1.00105209040696</v>
@@ -1224,7 +1176,7 @@
         <v>0.9998939749117226</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.028305672081557</v>
+      </c>
+      <c r="D12">
+        <v>0.9642530786848523</v>
+      </c>
+      <c r="E12">
         <v>0.9878490413674782</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.9873201833601503</v>
+      </c>
+      <c r="G12">
         <v>1.049917634539595</v>
       </c>
-      <c r="E12">
-        <v>0.9871025554848726</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>0.9871025554848725</v>
+      </c>
+      <c r="I12">
+        <v>1.049917634539595</v>
+      </c>
+      <c r="J12">
         <v>0.9878490413674782</v>
-      </c>
-      <c r="G12">
-        <v>0.9642530786848523</v>
-      </c>
-      <c r="H12">
-        <v>1.028305672081557</v>
-      </c>
-      <c r="I12">
-        <v>0.9873201833601503</v>
-      </c>
-      <c r="J12">
-        <v>1.049917634539595</v>
       </c>
       <c r="K12">
         <v>0.9878490413674782</v>
       </c>
       <c r="L12">
-        <v>0.9871025554848726</v>
+        <v>0.9871025554848725</v>
       </c>
       <c r="M12">
         <v>1.018510095012234</v>
@@ -1286,7 +1238,7 @@
         <v>1.000791360919751</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.007259281257592</v>
+      </c>
+      <c r="D13">
+        <v>0.9919708427466659</v>
+      </c>
+      <c r="E13">
         <v>0.9966804973353023</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.9965180959577649</v>
+      </c>
+      <c r="G13">
         <v>1.014606381594527</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>0.9964512627684543</v>
       </c>
-      <c r="F13">
+      <c r="I13">
+        <v>1.014606381594527</v>
+      </c>
+      <c r="J13">
         <v>0.9966804973353023</v>
-      </c>
-      <c r="G13">
-        <v>0.9919708427466659</v>
-      </c>
-      <c r="H13">
-        <v>1.007259281257592</v>
-      </c>
-      <c r="I13">
-        <v>0.9965180959577649</v>
-      </c>
-      <c r="J13">
-        <v>1.014606381594527</v>
       </c>
       <c r="K13">
         <v>0.9966804973353023</v>
@@ -1330,7 +1282,7 @@
         <v>1.00552882218149</v>
       </c>
       <c r="O13">
-        <v>1.006105641873524</v>
+        <v>1.006105641873525</v>
       </c>
       <c r="P13">
         <v>1.002579380566094</v>
@@ -1348,7 +1300,7 @@
         <v>1.000581060276718</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.088980139865029</v>
+      </c>
+      <c r="D14">
+        <v>0.9135493954117723</v>
+      </c>
+      <c r="E14">
         <v>0.9416945885620734</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.958411292827046</v>
+      </c>
+      <c r="G14">
         <v>1.173352868256496</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>0.9652905934511633</v>
       </c>
-      <c r="F14">
+      <c r="I14">
+        <v>1.173352868256496</v>
+      </c>
+      <c r="J14">
         <v>0.9416945885620734</v>
-      </c>
-      <c r="G14">
-        <v>0.9135493954117723</v>
-      </c>
-      <c r="H14">
-        <v>1.088980139865029</v>
-      </c>
-      <c r="I14">
-        <v>0.958411292827046</v>
-      </c>
-      <c r="J14">
-        <v>1.173352868256496</v>
       </c>
       <c r="K14">
         <v>0.9416945885620734</v>
@@ -1410,7 +1362,7 @@
         <v>1.006879813062263</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9960997677407647</v>
+        <v>1.023475583699041</v>
       </c>
       <c r="D15">
+        <v>0.9627373446283207</v>
+      </c>
+      <c r="E15">
+        <v>0.9960997677407645</v>
+      </c>
+      <c r="F15">
+        <v>0.9899307933374332</v>
+      </c>
+      <c r="G15">
         <v>1.037000495124408</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>0.9873921225213264</v>
       </c>
-      <c r="F15">
-        <v>0.9960997677407647</v>
-      </c>
-      <c r="G15">
-        <v>0.9627373446283207</v>
-      </c>
-      <c r="H15">
-        <v>1.023475583699041</v>
-      </c>
       <c r="I15">
-        <v>0.9899307933374331</v>
+        <v>1.037000495124408</v>
       </c>
       <c r="J15">
-        <v>1.037000495124408</v>
+        <v>0.9960997677407645</v>
       </c>
       <c r="K15">
-        <v>0.9960997677407647</v>
+        <v>0.9960997677407645</v>
       </c>
       <c r="L15">
         <v>0.9873921225213264</v>
@@ -1472,7 +1424,7 @@
         <v>0.9994393511752157</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998296660507636</v>
+        <v>0.964696624830075</v>
       </c>
       <c r="D16">
-        <v>1.000087561367134</v>
+        <v>1.037214287482251</v>
       </c>
       <c r="E16">
-        <v>1.00005928181512</v>
+        <v>1.020568461652292</v>
       </c>
       <c r="F16">
-        <v>0.9998296660507636</v>
+        <v>1.016374941528941</v>
       </c>
       <c r="G16">
-        <v>1.000195147584102</v>
+        <v>0.9325856593864736</v>
       </c>
       <c r="H16">
-        <v>0.9999987540139732</v>
+        <v>1.014649218891786</v>
       </c>
       <c r="I16">
-        <v>0.9999923382632764</v>
+        <v>0.9325856593864736</v>
       </c>
       <c r="J16">
-        <v>1.000087561367134</v>
+        <v>1.020568461652292</v>
       </c>
       <c r="K16">
-        <v>0.9998296660507636</v>
+        <v>1.020568461652292</v>
       </c>
       <c r="L16">
-        <v>1.00005928181512</v>
+        <v>1.014649218891786</v>
       </c>
       <c r="M16">
-        <v>1.000073421591127</v>
+        <v>0.9736174391391298</v>
       </c>
       <c r="N16">
-        <v>1.000073421591127</v>
+        <v>0.9736174391391298</v>
       </c>
       <c r="O16">
-        <v>1.000048532398742</v>
+        <v>0.9706438343694449</v>
       </c>
       <c r="P16">
-        <v>0.9999921697443392</v>
+        <v>0.9892677799768506</v>
       </c>
       <c r="Q16">
-        <v>0.9999921697443392</v>
+        <v>0.9892677799768506</v>
       </c>
       <c r="R16">
-        <v>0.9999515438209453</v>
+        <v>0.9970929503957109</v>
       </c>
       <c r="S16">
-        <v>0.9999515438209453</v>
+        <v>0.9970929503957109</v>
       </c>
       <c r="T16">
-        <v>1.000027124849062</v>
+        <v>0.9976815322953031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000287600669074</v>
+        <v>0.9711379279799839</v>
       </c>
       <c r="D17">
-        <v>0.9995825990579139</v>
+        <v>1.032088825492643</v>
       </c>
       <c r="E17">
-        <v>1.000003041765353</v>
+        <v>1.015383370202557</v>
       </c>
       <c r="F17">
-        <v>1.000287600669074</v>
+        <v>1.013308170673315</v>
       </c>
       <c r="G17">
-        <v>0.999956463521448</v>
+        <v>0.9457165260767108</v>
       </c>
       <c r="H17">
-        <v>0.9998348549309285</v>
+        <v>1.01245418271627</v>
       </c>
       <c r="I17">
-        <v>1.000086003325187</v>
+        <v>0.9457165260767108</v>
       </c>
       <c r="J17">
-        <v>0.9995825990579139</v>
+        <v>1.015383370202557</v>
       </c>
       <c r="K17">
-        <v>1.000287600669074</v>
+        <v>1.015383370202557</v>
       </c>
       <c r="L17">
-        <v>1.000003041765353</v>
+        <v>1.01245418271627</v>
       </c>
       <c r="M17">
-        <v>0.9997928204116334</v>
+        <v>0.9790853543964904</v>
       </c>
       <c r="N17">
-        <v>0.9997928204116334</v>
+        <v>0.9790853543964904</v>
       </c>
       <c r="O17">
-        <v>0.9998068319180651</v>
+        <v>0.976436212257655</v>
       </c>
       <c r="P17">
-        <v>0.9999577471641136</v>
+        <v>0.9911846929985125</v>
       </c>
       <c r="Q17">
-        <v>0.9999577471641136</v>
+        <v>0.9911846929985124</v>
       </c>
       <c r="R17">
-        <v>1.000040210540354</v>
+        <v>0.9972343622995236</v>
       </c>
       <c r="S17">
-        <v>1.000040210540354</v>
+        <v>0.9972343622995236</v>
       </c>
       <c r="T17">
-        <v>0.9999584272116507</v>
+        <v>0.9983481671902467</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998675928230524</v>
+        <v>0.984046143663321</v>
       </c>
       <c r="D18">
-        <v>0.9992045918900971</v>
+        <v>1.021709102047522</v>
       </c>
       <c r="E18">
-        <v>1.000377826225473</v>
+        <v>1.005088809794919</v>
       </c>
       <c r="F18">
-        <v>0.9998675928230524</v>
+        <v>1.007166918989229</v>
       </c>
       <c r="G18">
-        <v>1.001078700918749</v>
+        <v>0.9719810354208561</v>
       </c>
       <c r="H18">
-        <v>0.9994590124285608</v>
+        <v>1.008022109686906</v>
       </c>
       <c r="I18">
-        <v>1.000229068876947</v>
+        <v>0.9719810354208561</v>
       </c>
       <c r="J18">
-        <v>0.9992045918900971</v>
+        <v>1.005088809794919</v>
       </c>
       <c r="K18">
-        <v>0.9998675928230524</v>
+        <v>1.005088809794919</v>
       </c>
       <c r="L18">
-        <v>1.000377826225473</v>
+        <v>1.008022109686906</v>
       </c>
       <c r="M18">
-        <v>0.9997912090577853</v>
+        <v>0.9900015725538813</v>
       </c>
       <c r="N18">
-        <v>0.9997912090577853</v>
+        <v>0.9900015725538813</v>
       </c>
       <c r="O18">
-        <v>0.9996804768480438</v>
+        <v>0.9880164295903612</v>
       </c>
       <c r="P18">
-        <v>0.9998166703128742</v>
+        <v>0.9950306516342273</v>
       </c>
       <c r="Q18">
-        <v>0.9998166703128742</v>
+        <v>0.9950306516342273</v>
       </c>
       <c r="R18">
-        <v>0.9998294009404188</v>
+        <v>0.9975451911744002</v>
       </c>
       <c r="S18">
-        <v>0.9998294009404188</v>
+        <v>0.9975451911744002</v>
       </c>
       <c r="T18">
-        <v>1.000036132193813</v>
+        <v>0.9996690199337922</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9822605468448695</v>
+      </c>
+      <c r="D19">
+        <v>1.025067706001886</v>
+      </c>
+      <c r="E19">
+        <v>1.004762322890375</v>
+      </c>
+      <c r="F19">
+        <v>1.00794686918477</v>
+      </c>
+      <c r="G19">
+        <v>0.9691545649702216</v>
+      </c>
+      <c r="H19">
+        <v>1.00925738289974</v>
+      </c>
+      <c r="I19">
+        <v>0.9691545649702216</v>
+      </c>
+      <c r="J19">
+        <v>1.004762322890375</v>
+      </c>
+      <c r="K19">
+        <v>1.004762322890375</v>
+      </c>
+      <c r="L19">
+        <v>1.00925738289974</v>
+      </c>
+      <c r="M19">
+        <v>0.9892059739349807</v>
+      </c>
+      <c r="N19">
+        <v>0.9892059739349807</v>
+      </c>
+      <c r="O19">
+        <v>0.9868908315716102</v>
+      </c>
+      <c r="P19">
+        <v>0.9943914235867789</v>
+      </c>
+      <c r="Q19">
+        <v>0.9943914235867789</v>
+      </c>
+      <c r="R19">
+        <v>0.996984148412678</v>
+      </c>
+      <c r="S19">
+        <v>0.996984148412678</v>
+      </c>
+      <c r="T19">
+        <v>0.9997415654653103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999987540139732</v>
+      </c>
+      <c r="D20">
+        <v>1.000195147584102</v>
+      </c>
+      <c r="E20">
+        <v>0.9998296660507636</v>
+      </c>
+      <c r="F20">
+        <v>0.9999923382632764</v>
+      </c>
+      <c r="G20">
+        <v>1.000087561367134</v>
+      </c>
+      <c r="H20">
+        <v>1.00005928181512</v>
+      </c>
+      <c r="I20">
+        <v>1.000087561367134</v>
+      </c>
+      <c r="J20">
+        <v>0.9998296660507636</v>
+      </c>
+      <c r="K20">
+        <v>0.9998296660507636</v>
+      </c>
+      <c r="L20">
+        <v>1.00005928181512</v>
+      </c>
+      <c r="M20">
+        <v>1.000073421591127</v>
+      </c>
+      <c r="N20">
+        <v>1.000073421591127</v>
+      </c>
+      <c r="O20">
+        <v>1.000048532398742</v>
+      </c>
+      <c r="P20">
+        <v>0.9999921697443392</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999921697443392</v>
+      </c>
+      <c r="R20">
+        <v>0.9999515438209453</v>
+      </c>
+      <c r="S20">
+        <v>0.9999515438209453</v>
+      </c>
+      <c r="T20">
+        <v>1.000027124849062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998348549309285</v>
+      </c>
+      <c r="D21">
+        <v>0.999956463521448</v>
+      </c>
+      <c r="E21">
+        <v>1.000287600669074</v>
+      </c>
+      <c r="F21">
+        <v>1.000086003325187</v>
+      </c>
+      <c r="G21">
+        <v>0.9995825990579139</v>
+      </c>
+      <c r="H21">
+        <v>1.000003041765353</v>
+      </c>
+      <c r="I21">
+        <v>0.9995825990579139</v>
+      </c>
+      <c r="J21">
+        <v>1.000287600669074</v>
+      </c>
+      <c r="K21">
+        <v>1.000287600669074</v>
+      </c>
+      <c r="L21">
+        <v>1.000003041765353</v>
+      </c>
+      <c r="M21">
+        <v>0.9997928204116334</v>
+      </c>
+      <c r="N21">
+        <v>0.9997928204116334</v>
+      </c>
+      <c r="O21">
+        <v>0.9998068319180651</v>
+      </c>
+      <c r="P21">
+        <v>0.9999577471641135</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999577471641135</v>
+      </c>
+      <c r="R21">
+        <v>1.000040210540353</v>
+      </c>
+      <c r="S21">
+        <v>1.000040210540353</v>
+      </c>
+      <c r="T21">
+        <v>0.9999584272116507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9994590124285605</v>
+      </c>
+      <c r="D22">
+        <v>1.001078700918749</v>
+      </c>
+      <c r="E22">
+        <v>0.9998675928230524</v>
+      </c>
+      <c r="F22">
+        <v>1.000229068876947</v>
+      </c>
+      <c r="G22">
+        <v>0.9992045918900968</v>
+      </c>
+      <c r="H22">
+        <v>1.000377826225473</v>
+      </c>
+      <c r="I22">
+        <v>0.9992045918900968</v>
+      </c>
+      <c r="J22">
+        <v>0.9998675928230524</v>
+      </c>
+      <c r="K22">
+        <v>0.9998675928230524</v>
+      </c>
+      <c r="L22">
+        <v>1.000377826225473</v>
+      </c>
+      <c r="M22">
+        <v>0.999791209057785</v>
+      </c>
+      <c r="N22">
+        <v>0.999791209057785</v>
+      </c>
+      <c r="O22">
+        <v>0.9996804768480434</v>
+      </c>
+      <c r="P22">
+        <v>0.9998166703128741</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998166703128741</v>
+      </c>
+      <c r="R22">
+        <v>0.9998294009404187</v>
+      </c>
+      <c r="S22">
+        <v>0.9998294009404187</v>
+      </c>
+      <c r="T22">
+        <v>1.000036132193813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9987566330094116</v>
+      </c>
+      <c r="D23">
+        <v>1.003220877231659</v>
+      </c>
+      <c r="E23">
         <v>0.9990349440450281</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000496347300144</v>
+      </c>
+      <c r="G23">
         <v>0.9985061670276096</v>
       </c>
-      <c r="E19">
+      <c r="H23">
         <v>1.001097752555031</v>
       </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.9985061670276096</v>
+      </c>
+      <c r="J23">
         <v>0.9990349440450281</v>
       </c>
-      <c r="G19">
-        <v>1.003220877231659</v>
-      </c>
-      <c r="H19">
-        <v>0.9987566330094116</v>
-      </c>
-      <c r="I19">
-        <v>1.000496347300144</v>
-      </c>
-      <c r="J19">
-        <v>0.9985061670276096</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9990349440450281</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.001097752555031</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9998019597913202</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9998019597913202</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.999453517530684</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9995462878758895</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9995462878758895</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9994184519181741</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9994184519181741</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000185453528147</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9981893387767063</v>
+        <v>0.9799617311383295</v>
       </c>
       <c r="D3">
-        <v>1.001860695444487</v>
+        <v>1.02672825871758</v>
       </c>
       <c r="E3">
-        <v>1.001093927610886</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="F3">
-        <v>1.000842643944543</v>
+        <v>1.00902859835735</v>
       </c>
       <c r="G3">
-        <v>0.9965148358606667</v>
+        <v>0.96453010345101</v>
       </c>
       <c r="H3">
-        <v>1.000739236266488</v>
+        <v>1.009925310677235</v>
       </c>
       <c r="I3">
-        <v>0.9965148358606667</v>
+        <v>0.96453010345101</v>
       </c>
       <c r="J3">
-        <v>1.001093927610886</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="K3">
-        <v>1.001093927610886</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="L3">
-        <v>1.000739236266488</v>
+        <v>1.009925310677235</v>
       </c>
       <c r="M3">
-        <v>0.9986270360635772</v>
+        <v>0.9872277070641227</v>
       </c>
       <c r="N3">
-        <v>0.9986270360635772</v>
+        <v>0.9872277070641227</v>
       </c>
       <c r="O3">
-        <v>0.9984811369679535</v>
+        <v>0.9848057150888584</v>
       </c>
       <c r="P3">
-        <v>0.9994493332460136</v>
+        <v>0.993768333734392</v>
       </c>
       <c r="Q3">
-        <v>0.9994493332460136</v>
+        <v>0.993768333734392</v>
       </c>
       <c r="R3">
-        <v>0.9998604818372318</v>
+        <v>0.9970386470695267</v>
       </c>
       <c r="S3">
-        <v>0.9998604818372318</v>
+        <v>0.9970386470695267</v>
       </c>
       <c r="T3">
-        <v>0.9998734463172961</v>
+        <v>0.999503931569406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9965033106417149</v>
+        <v>0.9821790599627289</v>
       </c>
       <c r="D4">
-        <v>1.00356694026398</v>
+        <v>1.024081029575106</v>
       </c>
       <c r="E4">
-        <v>1.002138434282135</v>
+        <v>1.005824566453594</v>
       </c>
       <c r="F4">
-        <v>1.001627817092831</v>
+        <v>1.00801479963474</v>
       </c>
       <c r="G4">
-        <v>0.993261476598603</v>
+        <v>0.9686099071925059</v>
       </c>
       <c r="H4">
-        <v>1.001417687597225</v>
+        <v>1.008916129711146</v>
       </c>
       <c r="I4">
-        <v>0.993261476598603</v>
+        <v>0.9686099071925059</v>
       </c>
       <c r="J4">
-        <v>1.002138434282135</v>
+        <v>1.005824566453594</v>
       </c>
       <c r="K4">
-        <v>1.002138434282135</v>
+        <v>1.005824566453594</v>
       </c>
       <c r="L4">
-        <v>1.001417687597225</v>
+        <v>1.008916129711146</v>
       </c>
       <c r="M4">
-        <v>0.9973395820979141</v>
+        <v>0.9887630184518259</v>
       </c>
       <c r="N4">
-        <v>0.9973395820979141</v>
+        <v>0.9887630184518259</v>
       </c>
       <c r="O4">
-        <v>0.9970608249458476</v>
+        <v>0.9865683656221269</v>
       </c>
       <c r="P4">
-        <v>0.9989391994926544</v>
+        <v>0.9944502011190819</v>
       </c>
       <c r="Q4">
-        <v>0.9989391994926544</v>
+        <v>0.9944502011190819</v>
       </c>
       <c r="R4">
-        <v>0.9997390081900246</v>
+        <v>0.9972937924527099</v>
       </c>
       <c r="S4">
-        <v>0.9997390081900246</v>
+        <v>0.9972937924527099</v>
       </c>
       <c r="T4">
-        <v>0.9997526110794149</v>
+        <v>0.9996042487549701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9933032741436865</v>
+        <v>0.9757691270619947</v>
       </c>
       <c r="D5">
-        <v>1.006949399877729</v>
+        <v>1.031729709649594</v>
       </c>
       <c r="E5">
-        <v>1.003988096593923</v>
+        <v>1.00879185800539</v>
       </c>
       <c r="F5">
-        <v>1.003113210143855</v>
+        <v>1.010945562371969</v>
       </c>
       <c r="G5">
-        <v>0.9871445274565329</v>
+        <v>0.9568149138814021</v>
       </c>
       <c r="H5">
-        <v>1.002753180749393</v>
+        <v>1.011831865175201</v>
       </c>
       <c r="I5">
-        <v>0.9871445274565329</v>
+        <v>0.9568149138814021</v>
       </c>
       <c r="J5">
-        <v>1.003988096593923</v>
+        <v>1.00879185800539</v>
       </c>
       <c r="K5">
-        <v>1.003988096593923</v>
+        <v>1.00879185800539</v>
       </c>
       <c r="L5">
-        <v>1.002753180749393</v>
+        <v>1.011831865175201</v>
       </c>
       <c r="M5">
-        <v>0.9949488541029631</v>
+        <v>0.9843233895283017</v>
       </c>
       <c r="N5">
-        <v>0.9949488541029631</v>
+        <v>0.9843233895283017</v>
       </c>
       <c r="O5">
-        <v>0.9944003274498708</v>
+        <v>0.9814719687061993</v>
       </c>
       <c r="P5">
-        <v>0.9979619349332829</v>
+        <v>0.9924795456873311</v>
       </c>
       <c r="Q5">
-        <v>0.9979619349332829</v>
+        <v>0.9924795456873312</v>
       </c>
       <c r="R5">
-        <v>0.9994684753484429</v>
+        <v>0.9965576237668459</v>
       </c>
       <c r="S5">
-        <v>0.9994684753484429</v>
+        <v>0.9965576237668459</v>
       </c>
       <c r="T5">
-        <v>0.9995419481608532</v>
+        <v>0.9993138393575919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9901799858163755</v>
+        <v>0.971876323863636</v>
       </c>
       <c r="D6">
-        <v>1.010241815161536</v>
+        <v>1.036368709886363</v>
       </c>
       <c r="E6">
-        <v>1.005800892374116</v>
+        <v>1.010600177386363</v>
       </c>
       <c r="F6">
-        <v>1.004563445396709</v>
+        <v>1.012725505</v>
       </c>
       <c r="G6">
-        <v>0.9811694820443065</v>
+        <v>0.9496502660227276</v>
       </c>
       <c r="H6">
-        <v>1.004054233546591</v>
+        <v>1.013600130568181</v>
       </c>
       <c r="I6">
-        <v>0.9811694820443065</v>
+        <v>0.9496502660227276</v>
       </c>
       <c r="J6">
-        <v>1.005800892374116</v>
+        <v>1.010600177386363</v>
       </c>
       <c r="K6">
-        <v>1.005800892374116</v>
+        <v>1.010600177386363</v>
       </c>
       <c r="L6">
-        <v>1.004054233546591</v>
+        <v>1.013600130568181</v>
       </c>
       <c r="M6">
-        <v>0.9926118577954486</v>
+        <v>0.9816251982954545</v>
       </c>
       <c r="N6">
-        <v>0.9926118577954486</v>
+        <v>0.9816251982954545</v>
       </c>
       <c r="O6">
-        <v>0.9918012338024242</v>
+        <v>0.9783755734848483</v>
       </c>
       <c r="P6">
-        <v>0.9970082026550046</v>
+        <v>0.9912835246590906</v>
       </c>
       <c r="Q6">
-        <v>0.9970082026550046</v>
+        <v>0.9912835246590905</v>
       </c>
       <c r="R6">
-        <v>0.9992063750847826</v>
+        <v>0.9961126878409087</v>
       </c>
       <c r="S6">
-        <v>0.9992063750847826</v>
+        <v>0.9961126878409087</v>
       </c>
       <c r="T6">
-        <v>0.9993349757232725</v>
+        <v>0.9991368521212118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998624887471688</v>
+        <v>0.888024803608484</v>
       </c>
       <c r="D7">
-        <v>1.000182920673355</v>
+        <v>1.104694739211956</v>
       </c>
       <c r="E7">
-        <v>1.000047313612902</v>
+        <v>1.078195357522606</v>
       </c>
       <c r="F7">
-        <v>1.00006200988025</v>
+        <v>1.052237222154901</v>
       </c>
       <c r="G7">
-        <v>0.9997561465673568</v>
+        <v>0.7818673694936343</v>
       </c>
       <c r="H7">
-        <v>1.000068057784393</v>
+        <v>1.041554892227863</v>
       </c>
       <c r="I7">
-        <v>0.9997561465673568</v>
+        <v>0.7818673694936343</v>
       </c>
       <c r="J7">
-        <v>1.000047313612902</v>
+        <v>1.078195357522606</v>
       </c>
       <c r="K7">
-        <v>1.000047313612902</v>
+        <v>1.078195357522606</v>
       </c>
       <c r="L7">
-        <v>1.000068057784393</v>
+        <v>1.041554892227863</v>
       </c>
       <c r="M7">
-        <v>0.9999121021758747</v>
+        <v>0.9117111308607486</v>
       </c>
       <c r="N7">
-        <v>0.9999121021758747</v>
+        <v>0.9117111308607486</v>
       </c>
       <c r="O7">
-        <v>0.9998955643663061</v>
+        <v>0.903815688443327</v>
       </c>
       <c r="P7">
-        <v>0.9999571726548838</v>
+        <v>0.9672058730813676</v>
       </c>
       <c r="Q7">
-        <v>0.9999571726548838</v>
+        <v>0.9672058730813676</v>
       </c>
       <c r="R7">
-        <v>0.9999797078943884</v>
+        <v>0.9949532441916773</v>
       </c>
       <c r="S7">
-        <v>0.9999797078943884</v>
+        <v>0.9949532441916773</v>
       </c>
       <c r="T7">
-        <v>0.9999964895442376</v>
+        <v>0.9910957307032406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996004369912048</v>
+        <v>0.8880291884488235</v>
       </c>
       <c r="D8">
-        <v>1.000500468191307</v>
+        <v>1.104816805048931</v>
       </c>
       <c r="E8">
-        <v>1.000165352751655</v>
+        <v>1.078078843091477</v>
       </c>
       <c r="F8">
-        <v>1.000181389717294</v>
+        <v>1.052230291464663</v>
       </c>
       <c r="G8">
-        <v>0.9992778076594167</v>
+        <v>0.7819310930928848</v>
       </c>
       <c r="H8">
-        <v>1.000187989601193</v>
+        <v>1.041593057705963</v>
       </c>
       <c r="I8">
-        <v>0.9992778076594167</v>
+        <v>0.7819310930928848</v>
       </c>
       <c r="J8">
-        <v>1.000165352751655</v>
+        <v>1.078078843091477</v>
       </c>
       <c r="K8">
-        <v>1.000165352751655</v>
+        <v>1.078078843091477</v>
       </c>
       <c r="L8">
-        <v>1.000187989601193</v>
+        <v>1.041593057705963</v>
       </c>
       <c r="M8">
-        <v>0.9997328986303049</v>
+        <v>0.9117620753994238</v>
       </c>
       <c r="N8">
-        <v>0.9997328986303049</v>
+        <v>0.9117620753994238</v>
       </c>
       <c r="O8">
-        <v>0.9996887447506048</v>
+        <v>0.9038511130825571</v>
       </c>
       <c r="P8">
-        <v>0.9998770500040884</v>
+        <v>0.9672009979634414</v>
       </c>
       <c r="Q8">
-        <v>0.9998770500040884</v>
+        <v>0.9672009979634416</v>
       </c>
       <c r="R8">
-        <v>0.9999491256909802</v>
+        <v>0.9949204592454504</v>
       </c>
       <c r="S8">
-        <v>0.9999491256909802</v>
+        <v>0.9949204592454504</v>
       </c>
       <c r="T8">
-        <v>0.9999855741520118</v>
+        <v>0.9911132131421238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994468172367945</v>
+        <v>0.8880375795559532</v>
       </c>
       <c r="D9">
-        <v>1.000639723172285</v>
+        <v>1.105050397642495</v>
       </c>
       <c r="E9">
-        <v>1.000276831335572</v>
+        <v>1.077855874013356</v>
       </c>
       <c r="F9">
-        <v>1.000253163667829</v>
+        <v>1.052217028478465</v>
       </c>
       <c r="G9">
-        <v>0.9989770611064386</v>
+        <v>0.7820530383447496</v>
       </c>
       <c r="H9">
-        <v>1.000243423055616</v>
+        <v>1.041666093450269</v>
       </c>
       <c r="I9">
-        <v>0.9989770611064386</v>
+        <v>0.7820530383447496</v>
       </c>
       <c r="J9">
-        <v>1.000276831335572</v>
+        <v>1.077855874013356</v>
       </c>
       <c r="K9">
-        <v>1.000276831335572</v>
+        <v>1.077855874013356</v>
       </c>
       <c r="L9">
-        <v>1.000243423055616</v>
+        <v>1.041666093450269</v>
       </c>
       <c r="M9">
-        <v>0.9996102420810271</v>
+        <v>0.9118595658975093</v>
       </c>
       <c r="N9">
-        <v>0.9996102420810271</v>
+        <v>0.9118595658975093</v>
       </c>
       <c r="O9">
-        <v>0.9995557671329496</v>
+        <v>0.9039189037836572</v>
       </c>
       <c r="P9">
-        <v>0.9998324384992087</v>
+        <v>0.9671916686027915</v>
       </c>
       <c r="Q9">
-        <v>0.9998324384992087</v>
+        <v>0.9671916686027915</v>
       </c>
       <c r="R9">
-        <v>0.9999435367082996</v>
+        <v>0.9948577199554327</v>
       </c>
       <c r="S9">
-        <v>0.9999435367082996</v>
+        <v>0.9948577199554327</v>
       </c>
       <c r="T9">
-        <v>0.9999728365957558</v>
+        <v>0.9911466685808811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9988066063677995</v>
+        <v>0.888036939661017</v>
       </c>
       <c r="D10">
-        <v>1.001444799483243</v>
+        <v>1.105032584016663</v>
       </c>
       <c r="E10">
-        <v>1.000538981586816</v>
+        <v>1.077872876882185</v>
       </c>
       <c r="F10">
-        <v>1.000543660657417</v>
+        <v>1.052218039886744</v>
       </c>
       <c r="G10">
-        <v>0.9978214187162568</v>
+        <v>0.7820437391211128</v>
       </c>
       <c r="H10">
-        <v>1.000545585270028</v>
+        <v>1.041660523578498</v>
       </c>
       <c r="I10">
-        <v>0.9978214187162568</v>
+        <v>0.7820437391211128</v>
       </c>
       <c r="J10">
-        <v>1.000538981586816</v>
+        <v>1.077872876882185</v>
       </c>
       <c r="K10">
-        <v>1.000538981586816</v>
+        <v>1.077872876882185</v>
       </c>
       <c r="L10">
-        <v>1.000545585270028</v>
+        <v>1.041660523578498</v>
       </c>
       <c r="M10">
-        <v>0.9991835019931423</v>
+        <v>0.9118521313498054</v>
       </c>
       <c r="N10">
-        <v>0.9991835019931423</v>
+        <v>0.9118521313498054</v>
       </c>
       <c r="O10">
-        <v>0.999057870118028</v>
+        <v>0.9039137341202093</v>
       </c>
       <c r="P10">
-        <v>0.9996353285243668</v>
+        <v>0.9671923798605988</v>
       </c>
       <c r="Q10">
-        <v>0.9996353285243668</v>
+        <v>0.9671923798605988</v>
       </c>
       <c r="R10">
-        <v>0.999861241789979</v>
+        <v>0.9948625041159955</v>
       </c>
       <c r="S10">
-        <v>0.999861241789979</v>
+        <v>0.9948625041159955</v>
       </c>
       <c r="T10">
-        <v>0.9999501753469268</v>
+        <v>0.9911441171910368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9979959229610685</v>
+        <v>0.997618587145663</v>
       </c>
       <c r="D11">
-        <v>1.002262408679872</v>
+        <v>1.002295637934421</v>
       </c>
       <c r="E11">
-        <v>1.00105209040696</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="F11">
-        <v>1.00091939972264</v>
+        <v>1.001112174576638</v>
       </c>
       <c r="G11">
-        <v>0.9962692303068511</v>
+        <v>0.9953636896666166</v>
       </c>
       <c r="H11">
-        <v>1.000864797392944</v>
+        <v>1.000918138865522</v>
       </c>
       <c r="I11">
-        <v>0.9962692303068511</v>
+        <v>0.9953636896666166</v>
       </c>
       <c r="J11">
-        <v>1.00105209040696</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="K11">
-        <v>1.00105209040696</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="L11">
-        <v>1.000864797392944</v>
+        <v>1.000918138865522</v>
       </c>
       <c r="M11">
-        <v>0.9985670138498977</v>
+        <v>0.9981409142660691</v>
       </c>
       <c r="N11">
-        <v>0.9985670138498977</v>
+        <v>0.9981409142660691</v>
       </c>
       <c r="O11">
-        <v>0.9983766502202879</v>
+        <v>0.9979668052259337</v>
       </c>
       <c r="P11">
-        <v>0.9993953727022516</v>
+        <v>0.9992885043714379</v>
       </c>
       <c r="Q11">
-        <v>0.9993953727022516</v>
+        <v>0.9992885043714379</v>
       </c>
       <c r="R11">
-        <v>0.9998095521284287</v>
+        <v>0.9998622994241224</v>
       </c>
       <c r="S11">
-        <v>0.9998095521284287</v>
+        <v>0.9998622994241224</v>
       </c>
       <c r="T11">
-        <v>0.9998939749117226</v>
+        <v>0.9998153187951727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.028305672081557</v>
+        <v>0.9985550903733432</v>
       </c>
       <c r="D12">
-        <v>0.9642530786848523</v>
+        <v>1.001469104424955</v>
       </c>
       <c r="E12">
-        <v>0.9878490413674782</v>
+        <v>1.000893555139877</v>
       </c>
       <c r="F12">
-        <v>0.9873201833601503</v>
+        <v>1.000671577980242</v>
       </c>
       <c r="G12">
-        <v>1.049917634539595</v>
+        <v>0.9972222292776274</v>
       </c>
       <c r="H12">
-        <v>0.9871025554848725</v>
+        <v>1.000580229707078</v>
       </c>
       <c r="I12">
-        <v>1.049917634539595</v>
+        <v>0.9972222292776274</v>
       </c>
       <c r="J12">
-        <v>0.9878490413674782</v>
+        <v>1.000893555139877</v>
       </c>
       <c r="K12">
-        <v>0.9878490413674782</v>
+        <v>1.000893555139877</v>
       </c>
       <c r="L12">
-        <v>0.9871025554848725</v>
+        <v>1.000580229707078</v>
       </c>
       <c r="M12">
-        <v>1.018510095012234</v>
+        <v>0.9989012294923526</v>
       </c>
       <c r="N12">
-        <v>1.018510095012234</v>
+        <v>0.9989012294923526</v>
       </c>
       <c r="O12">
-        <v>1.021775287368675</v>
+        <v>0.9987858497860161</v>
       </c>
       <c r="P12">
-        <v>1.008289743797315</v>
+        <v>0.9995653380415274</v>
       </c>
       <c r="Q12">
-        <v>1.008289743797315</v>
+        <v>0.9995653380415274</v>
       </c>
       <c r="R12">
-        <v>1.003179568189856</v>
+        <v>0.9998973923161147</v>
       </c>
       <c r="S12">
-        <v>1.003179568189856</v>
+        <v>0.9998973923161147</v>
       </c>
       <c r="T12">
-        <v>1.000791360919751</v>
+        <v>0.9998986311505202</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.007259281257592</v>
+        <v>0.9951767257857634</v>
       </c>
       <c r="D13">
-        <v>0.9919708427466659</v>
+        <v>1.004967809291429</v>
       </c>
       <c r="E13">
-        <v>0.9966804973353023</v>
+        <v>1.002920848794092</v>
       </c>
       <c r="F13">
-        <v>0.9965180959577649</v>
+        <v>1.00224037204905</v>
       </c>
       <c r="G13">
-        <v>1.014606381594527</v>
+        <v>0.9907480526818432</v>
       </c>
       <c r="H13">
-        <v>0.9964512627684543</v>
+        <v>1.001960344992866</v>
       </c>
       <c r="I13">
-        <v>1.014606381594527</v>
+        <v>0.9907480526818432</v>
       </c>
       <c r="J13">
-        <v>0.9966804973353023</v>
+        <v>1.002920848794092</v>
       </c>
       <c r="K13">
-        <v>0.9966804973353023</v>
+        <v>1.002920848794092</v>
       </c>
       <c r="L13">
-        <v>0.9964512627684543</v>
+        <v>1.001960344992866</v>
       </c>
       <c r="M13">
-        <v>1.00552882218149</v>
+        <v>0.9963541988373548</v>
       </c>
       <c r="N13">
-        <v>1.00552882218149</v>
+        <v>0.9963541988373548</v>
       </c>
       <c r="O13">
-        <v>1.006105641873525</v>
+        <v>0.9959617078201576</v>
       </c>
       <c r="P13">
-        <v>1.002579380566094</v>
+        <v>0.9985430821562673</v>
       </c>
       <c r="Q13">
-        <v>1.002579380566094</v>
+        <v>0.9985430821562673</v>
       </c>
       <c r="R13">
-        <v>1.001104659758396</v>
+        <v>0.9996375238157236</v>
       </c>
       <c r="S13">
-        <v>1.001104659758396</v>
+        <v>0.9996375238157236</v>
       </c>
       <c r="T13">
-        <v>1.000581060276718</v>
+        <v>0.9996690255991739</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.088980139865029</v>
+        <v>0.9949271596884576</v>
       </c>
       <c r="D14">
-        <v>0.9135493954117723</v>
+        <v>1.005268378452334</v>
       </c>
       <c r="E14">
-        <v>0.9416945885620734</v>
+        <v>1.003020018820157</v>
       </c>
       <c r="F14">
-        <v>0.958411292827046</v>
+        <v>1.002357515693628</v>
       </c>
       <c r="G14">
-        <v>1.173352868256496</v>
+        <v>0.9902679458999177</v>
       </c>
       <c r="H14">
-        <v>0.9652905934511633</v>
+        <v>1.002084894320775</v>
       </c>
       <c r="I14">
-        <v>1.173352868256496</v>
+        <v>0.9902679458999177</v>
       </c>
       <c r="J14">
-        <v>0.9416945885620734</v>
+        <v>1.003020018820157</v>
       </c>
       <c r="K14">
-        <v>0.9416945885620734</v>
+        <v>1.003020018820157</v>
       </c>
       <c r="L14">
-        <v>0.9652905934511633</v>
+        <v>1.002084894320775</v>
       </c>
       <c r="M14">
-        <v>1.06932173085383</v>
+        <v>0.9961764201103465</v>
       </c>
       <c r="N14">
-        <v>1.06932173085383</v>
+        <v>0.9961764201103465</v>
       </c>
       <c r="O14">
-        <v>1.075874533857563</v>
+        <v>0.9957599999697169</v>
       </c>
       <c r="P14">
-        <v>1.026779350089911</v>
+        <v>0.9984576196802832</v>
       </c>
       <c r="Q14">
-        <v>1.026779350089911</v>
+        <v>0.9984576196802832</v>
       </c>
       <c r="R14">
-        <v>1.005508159707952</v>
+        <v>0.9995982194652517</v>
       </c>
       <c r="S14">
-        <v>1.005508159707952</v>
+        <v>0.9995982194652517</v>
       </c>
       <c r="T14">
-        <v>1.006879813062263</v>
+        <v>0.9996543188125449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.023475583699041</v>
+        <v>0.9981893387767063</v>
       </c>
       <c r="D15">
-        <v>0.9627373446283207</v>
+        <v>1.001860695444487</v>
       </c>
       <c r="E15">
-        <v>0.9960997677407645</v>
+        <v>1.001093927610886</v>
       </c>
       <c r="F15">
-        <v>0.9899307933374332</v>
+        <v>1.000842643944543</v>
       </c>
       <c r="G15">
-        <v>1.037000495124408</v>
+        <v>0.9965148358606667</v>
       </c>
       <c r="H15">
-        <v>0.9873921225213264</v>
+        <v>1.000739236266488</v>
       </c>
       <c r="I15">
-        <v>1.037000495124408</v>
+        <v>0.9965148358606667</v>
       </c>
       <c r="J15">
-        <v>0.9960997677407645</v>
+        <v>1.001093927610886</v>
       </c>
       <c r="K15">
-        <v>0.9960997677407645</v>
+        <v>1.001093927610886</v>
       </c>
       <c r="L15">
-        <v>0.9873921225213264</v>
+        <v>1.000739236266488</v>
       </c>
       <c r="M15">
-        <v>1.012196308822867</v>
+        <v>0.9986270360635772</v>
       </c>
       <c r="N15">
-        <v>1.012196308822867</v>
+        <v>0.9986270360635772</v>
       </c>
       <c r="O15">
-        <v>1.015956067114925</v>
+        <v>0.9984811369679535</v>
       </c>
       <c r="P15">
-        <v>1.006830795128833</v>
+        <v>0.9994493332460136</v>
       </c>
       <c r="Q15">
-        <v>1.006830795128833</v>
+        <v>0.9994493332460136</v>
       </c>
       <c r="R15">
-        <v>1.004148038281816</v>
+        <v>0.9998604818372318</v>
       </c>
       <c r="S15">
-        <v>1.004148038281816</v>
+        <v>0.9998604818372318</v>
       </c>
       <c r="T15">
-        <v>0.9994393511752157</v>
+        <v>0.9998734463172961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.964696624830075</v>
+        <v>0.9965033106417149</v>
       </c>
       <c r="D16">
-        <v>1.037214287482251</v>
+        <v>1.00356694026398</v>
       </c>
       <c r="E16">
-        <v>1.020568461652292</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="F16">
-        <v>1.016374941528941</v>
+        <v>1.001627817092831</v>
       </c>
       <c r="G16">
-        <v>0.9325856593864736</v>
+        <v>0.993261476598603</v>
       </c>
       <c r="H16">
-        <v>1.014649218891786</v>
+        <v>1.001417687597225</v>
       </c>
       <c r="I16">
-        <v>0.9325856593864736</v>
+        <v>0.993261476598603</v>
       </c>
       <c r="J16">
-        <v>1.020568461652292</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="K16">
-        <v>1.020568461652292</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="L16">
-        <v>1.014649218891786</v>
+        <v>1.001417687597225</v>
       </c>
       <c r="M16">
-        <v>0.9736174391391298</v>
+        <v>0.9973395820979141</v>
       </c>
       <c r="N16">
-        <v>0.9736174391391298</v>
+        <v>0.9973395820979141</v>
       </c>
       <c r="O16">
-        <v>0.9706438343694449</v>
+        <v>0.9970608249458476</v>
       </c>
       <c r="P16">
-        <v>0.9892677799768506</v>
+        <v>0.9989391994926544</v>
       </c>
       <c r="Q16">
-        <v>0.9892677799768506</v>
+        <v>0.9989391994926544</v>
       </c>
       <c r="R16">
-        <v>0.9970929503957109</v>
+        <v>0.9997390081900246</v>
       </c>
       <c r="S16">
-        <v>0.9970929503957109</v>
+        <v>0.9997390081900246</v>
       </c>
       <c r="T16">
-        <v>0.9976815322953031</v>
+        <v>0.9997526110794149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9711379279799839</v>
+        <v>0.9933032741436865</v>
       </c>
       <c r="D17">
-        <v>1.032088825492643</v>
+        <v>1.006949399877729</v>
       </c>
       <c r="E17">
-        <v>1.015383370202557</v>
+        <v>1.003988096593923</v>
       </c>
       <c r="F17">
-        <v>1.013308170673315</v>
+        <v>1.003113210143855</v>
       </c>
       <c r="G17">
-        <v>0.9457165260767108</v>
+        <v>0.9871445274565329</v>
       </c>
       <c r="H17">
-        <v>1.01245418271627</v>
+        <v>1.002753180749393</v>
       </c>
       <c r="I17">
-        <v>0.9457165260767108</v>
+        <v>0.9871445274565329</v>
       </c>
       <c r="J17">
-        <v>1.015383370202557</v>
+        <v>1.003988096593923</v>
       </c>
       <c r="K17">
-        <v>1.015383370202557</v>
+        <v>1.003988096593923</v>
       </c>
       <c r="L17">
-        <v>1.01245418271627</v>
+        <v>1.002753180749393</v>
       </c>
       <c r="M17">
-        <v>0.9790853543964904</v>
+        <v>0.9949488541029631</v>
       </c>
       <c r="N17">
-        <v>0.9790853543964904</v>
+        <v>0.9949488541029631</v>
       </c>
       <c r="O17">
-        <v>0.976436212257655</v>
+        <v>0.9944003274498708</v>
       </c>
       <c r="P17">
-        <v>0.9911846929985125</v>
+        <v>0.9979619349332829</v>
       </c>
       <c r="Q17">
-        <v>0.9911846929985124</v>
+        <v>0.9979619349332829</v>
       </c>
       <c r="R17">
-        <v>0.9972343622995236</v>
+        <v>0.9994684753484429</v>
       </c>
       <c r="S17">
-        <v>0.9972343622995236</v>
+        <v>0.9994684753484429</v>
       </c>
       <c r="T17">
-        <v>0.9983481671902467</v>
+        <v>0.9995419481608532</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.984046143663321</v>
+        <v>0.9901799858163755</v>
       </c>
       <c r="D18">
-        <v>1.021709102047522</v>
+        <v>1.010241815161536</v>
       </c>
       <c r="E18">
-        <v>1.005088809794919</v>
+        <v>1.005800892374116</v>
       </c>
       <c r="F18">
-        <v>1.007166918989229</v>
+        <v>1.004563445396709</v>
       </c>
       <c r="G18">
-        <v>0.9719810354208561</v>
+        <v>0.9811694820443065</v>
       </c>
       <c r="H18">
-        <v>1.008022109686906</v>
+        <v>1.004054233546591</v>
       </c>
       <c r="I18">
-        <v>0.9719810354208561</v>
+        <v>0.9811694820443065</v>
       </c>
       <c r="J18">
-        <v>1.005088809794919</v>
+        <v>1.005800892374116</v>
       </c>
       <c r="K18">
-        <v>1.005088809794919</v>
+        <v>1.005800892374116</v>
       </c>
       <c r="L18">
-        <v>1.008022109686906</v>
+        <v>1.004054233546591</v>
       </c>
       <c r="M18">
-        <v>0.9900015725538813</v>
+        <v>0.9926118577954486</v>
       </c>
       <c r="N18">
-        <v>0.9900015725538813</v>
+        <v>0.9926118577954486</v>
       </c>
       <c r="O18">
-        <v>0.9880164295903612</v>
+        <v>0.9918012338024242</v>
       </c>
       <c r="P18">
-        <v>0.9950306516342273</v>
+        <v>0.9970082026550046</v>
       </c>
       <c r="Q18">
-        <v>0.9950306516342273</v>
+        <v>0.9970082026550046</v>
       </c>
       <c r="R18">
-        <v>0.9975451911744002</v>
+        <v>0.9992063750847826</v>
       </c>
       <c r="S18">
-        <v>0.9975451911744002</v>
+        <v>0.9992063750847826</v>
       </c>
       <c r="T18">
-        <v>0.9996690199337922</v>
+        <v>0.9993349757232725</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9822605468448695</v>
+        <v>0.9998624887471688</v>
       </c>
       <c r="D19">
-        <v>1.025067706001886</v>
+        <v>1.000182920673355</v>
       </c>
       <c r="E19">
-        <v>1.004762322890375</v>
+        <v>1.000047313612902</v>
       </c>
       <c r="F19">
-        <v>1.00794686918477</v>
+        <v>1.00006200988025</v>
       </c>
       <c r="G19">
-        <v>0.9691545649702216</v>
+        <v>0.9997561465673568</v>
       </c>
       <c r="H19">
-        <v>1.00925738289974</v>
+        <v>1.000068057784393</v>
       </c>
       <c r="I19">
-        <v>0.9691545649702216</v>
+        <v>0.9997561465673568</v>
       </c>
       <c r="J19">
-        <v>1.004762322890375</v>
+        <v>1.000047313612902</v>
       </c>
       <c r="K19">
-        <v>1.004762322890375</v>
+        <v>1.000047313612902</v>
       </c>
       <c r="L19">
-        <v>1.00925738289974</v>
+        <v>1.000068057784393</v>
       </c>
       <c r="M19">
-        <v>0.9892059739349807</v>
+        <v>0.9999121021758747</v>
       </c>
       <c r="N19">
-        <v>0.9892059739349807</v>
+        <v>0.9999121021758747</v>
       </c>
       <c r="O19">
-        <v>0.9868908315716102</v>
+        <v>0.9998955643663061</v>
       </c>
       <c r="P19">
-        <v>0.9943914235867789</v>
+        <v>0.9999571726548838</v>
       </c>
       <c r="Q19">
-        <v>0.9943914235867789</v>
+        <v>0.9999571726548838</v>
       </c>
       <c r="R19">
-        <v>0.996984148412678</v>
+        <v>0.9999797078943884</v>
       </c>
       <c r="S19">
-        <v>0.996984148412678</v>
+        <v>0.9999797078943884</v>
       </c>
       <c r="T19">
-        <v>0.9997415654653103</v>
+        <v>0.9999964895442376</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999987540139732</v>
+        <v>0.9996004369912048</v>
       </c>
       <c r="D20">
-        <v>1.000195147584102</v>
+        <v>1.000500468191307</v>
       </c>
       <c r="E20">
-        <v>0.9998296660507636</v>
+        <v>1.000165352751655</v>
       </c>
       <c r="F20">
-        <v>0.9999923382632764</v>
+        <v>1.000181389717294</v>
       </c>
       <c r="G20">
-        <v>1.000087561367134</v>
+        <v>0.9992778076594167</v>
       </c>
       <c r="H20">
-        <v>1.00005928181512</v>
+        <v>1.000187989601193</v>
       </c>
       <c r="I20">
-        <v>1.000087561367134</v>
+        <v>0.9992778076594167</v>
       </c>
       <c r="J20">
-        <v>0.9998296660507636</v>
+        <v>1.000165352751655</v>
       </c>
       <c r="K20">
-        <v>0.9998296660507636</v>
+        <v>1.000165352751655</v>
       </c>
       <c r="L20">
-        <v>1.00005928181512</v>
+        <v>1.000187989601193</v>
       </c>
       <c r="M20">
-        <v>1.000073421591127</v>
+        <v>0.9997328986303049</v>
       </c>
       <c r="N20">
-        <v>1.000073421591127</v>
+        <v>0.9997328986303049</v>
       </c>
       <c r="O20">
-        <v>1.000048532398742</v>
+        <v>0.9996887447506048</v>
       </c>
       <c r="P20">
-        <v>0.9999921697443392</v>
+        <v>0.9998770500040884</v>
       </c>
       <c r="Q20">
-        <v>0.9999921697443392</v>
+        <v>0.9998770500040884</v>
       </c>
       <c r="R20">
-        <v>0.9999515438209453</v>
+        <v>0.9999491256909802</v>
       </c>
       <c r="S20">
-        <v>0.9999515438209453</v>
+        <v>0.9999491256909802</v>
       </c>
       <c r="T20">
-        <v>1.000027124849062</v>
+        <v>0.9999855741520118</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998348549309285</v>
+        <v>0.9994468172367945</v>
       </c>
       <c r="D21">
-        <v>0.999956463521448</v>
+        <v>1.000639723172285</v>
       </c>
       <c r="E21">
-        <v>1.000287600669074</v>
+        <v>1.000276831335572</v>
       </c>
       <c r="F21">
-        <v>1.000086003325187</v>
+        <v>1.000253163667829</v>
       </c>
       <c r="G21">
-        <v>0.9995825990579139</v>
+        <v>0.9989770611064386</v>
       </c>
       <c r="H21">
-        <v>1.000003041765353</v>
+        <v>1.000243423055616</v>
       </c>
       <c r="I21">
-        <v>0.9995825990579139</v>
+        <v>0.9989770611064386</v>
       </c>
       <c r="J21">
-        <v>1.000287600669074</v>
+        <v>1.000276831335572</v>
       </c>
       <c r="K21">
-        <v>1.000287600669074</v>
+        <v>1.000276831335572</v>
       </c>
       <c r="L21">
-        <v>1.000003041765353</v>
+        <v>1.000243423055616</v>
       </c>
       <c r="M21">
-        <v>0.9997928204116334</v>
+        <v>0.9996102420810271</v>
       </c>
       <c r="N21">
-        <v>0.9997928204116334</v>
+        <v>0.9996102420810271</v>
       </c>
       <c r="O21">
-        <v>0.9998068319180651</v>
+        <v>0.9995557671329496</v>
       </c>
       <c r="P21">
-        <v>0.9999577471641135</v>
+        <v>0.9998324384992087</v>
       </c>
       <c r="Q21">
-        <v>0.9999577471641135</v>
+        <v>0.9998324384992087</v>
       </c>
       <c r="R21">
-        <v>1.000040210540353</v>
+        <v>0.9999435367082996</v>
       </c>
       <c r="S21">
-        <v>1.000040210540353</v>
+        <v>0.9999435367082996</v>
       </c>
       <c r="T21">
-        <v>0.9999584272116507</v>
+        <v>0.9999728365957558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9994590124285605</v>
+        <v>0.9988066063677995</v>
       </c>
       <c r="D22">
-        <v>1.001078700918749</v>
+        <v>1.001444799483243</v>
       </c>
       <c r="E22">
-        <v>0.9998675928230524</v>
+        <v>1.000538981586816</v>
       </c>
       <c r="F22">
-        <v>1.000229068876947</v>
+        <v>1.000543660657417</v>
       </c>
       <c r="G22">
-        <v>0.9992045918900968</v>
+        <v>0.9978214187162568</v>
       </c>
       <c r="H22">
-        <v>1.000377826225473</v>
+        <v>1.000545585270028</v>
       </c>
       <c r="I22">
-        <v>0.9992045918900968</v>
+        <v>0.9978214187162568</v>
       </c>
       <c r="J22">
-        <v>0.9998675928230524</v>
+        <v>1.000538981586816</v>
       </c>
       <c r="K22">
-        <v>0.9998675928230524</v>
+        <v>1.000538981586816</v>
       </c>
       <c r="L22">
-        <v>1.000377826225473</v>
+        <v>1.000545585270028</v>
       </c>
       <c r="M22">
-        <v>0.999791209057785</v>
+        <v>0.9991835019931423</v>
       </c>
       <c r="N22">
-        <v>0.999791209057785</v>
+        <v>0.9991835019931423</v>
       </c>
       <c r="O22">
-        <v>0.9996804768480434</v>
+        <v>0.999057870118028</v>
       </c>
       <c r="P22">
-        <v>0.9998166703128741</v>
+        <v>0.9996353285243668</v>
       </c>
       <c r="Q22">
-        <v>0.9998166703128741</v>
+        <v>0.9996353285243668</v>
       </c>
       <c r="R22">
-        <v>0.9998294009404187</v>
+        <v>0.999861241789979</v>
       </c>
       <c r="S22">
-        <v>0.9998294009404187</v>
+        <v>0.999861241789979</v>
       </c>
       <c r="T22">
-        <v>1.000036132193813</v>
+        <v>0.9999501753469268</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9979959229610685</v>
+      </c>
+      <c r="D23">
+        <v>1.002262408679872</v>
+      </c>
+      <c r="E23">
+        <v>1.00105209040696</v>
+      </c>
+      <c r="F23">
+        <v>1.00091939972264</v>
+      </c>
+      <c r="G23">
+        <v>0.9962692303068511</v>
+      </c>
+      <c r="H23">
+        <v>1.000864797392944</v>
+      </c>
+      <c r="I23">
+        <v>0.9962692303068511</v>
+      </c>
+      <c r="J23">
+        <v>1.00105209040696</v>
+      </c>
+      <c r="K23">
+        <v>1.00105209040696</v>
+      </c>
+      <c r="L23">
+        <v>1.000864797392944</v>
+      </c>
+      <c r="M23">
+        <v>0.9985670138498977</v>
+      </c>
+      <c r="N23">
+        <v>0.9985670138498977</v>
+      </c>
+      <c r="O23">
+        <v>0.9983766502202879</v>
+      </c>
+      <c r="P23">
+        <v>0.9993953727022516</v>
+      </c>
+      <c r="Q23">
+        <v>0.9993953727022516</v>
+      </c>
+      <c r="R23">
+        <v>0.9998095521284287</v>
+      </c>
+      <c r="S23">
+        <v>0.9998095521284287</v>
+      </c>
+      <c r="T23">
+        <v>0.9998939749117226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.028305672081557</v>
+      </c>
+      <c r="D24">
+        <v>0.9642530786848523</v>
+      </c>
+      <c r="E24">
+        <v>0.9878490413674782</v>
+      </c>
+      <c r="F24">
+        <v>0.9873201833601503</v>
+      </c>
+      <c r="G24">
+        <v>1.049917634539595</v>
+      </c>
+      <c r="H24">
+        <v>0.9871025554848725</v>
+      </c>
+      <c r="I24">
+        <v>1.049917634539595</v>
+      </c>
+      <c r="J24">
+        <v>0.9878490413674782</v>
+      </c>
+      <c r="K24">
+        <v>0.9878490413674782</v>
+      </c>
+      <c r="L24">
+        <v>0.9871025554848725</v>
+      </c>
+      <c r="M24">
+        <v>1.018510095012234</v>
+      </c>
+      <c r="N24">
+        <v>1.018510095012234</v>
+      </c>
+      <c r="O24">
+        <v>1.021775287368675</v>
+      </c>
+      <c r="P24">
+        <v>1.008289743797315</v>
+      </c>
+      <c r="Q24">
+        <v>1.008289743797315</v>
+      </c>
+      <c r="R24">
+        <v>1.003179568189856</v>
+      </c>
+      <c r="S24">
+        <v>1.003179568189856</v>
+      </c>
+      <c r="T24">
+        <v>1.000791360919751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.007259281257592</v>
+      </c>
+      <c r="D25">
+        <v>0.9919708427466659</v>
+      </c>
+      <c r="E25">
+        <v>0.9966804973353023</v>
+      </c>
+      <c r="F25">
+        <v>0.9965180959577649</v>
+      </c>
+      <c r="G25">
+        <v>1.014606381594527</v>
+      </c>
+      <c r="H25">
+        <v>0.9964512627684543</v>
+      </c>
+      <c r="I25">
+        <v>1.014606381594527</v>
+      </c>
+      <c r="J25">
+        <v>0.9966804973353023</v>
+      </c>
+      <c r="K25">
+        <v>0.9966804973353023</v>
+      </c>
+      <c r="L25">
+        <v>0.9964512627684543</v>
+      </c>
+      <c r="M25">
+        <v>1.00552882218149</v>
+      </c>
+      <c r="N25">
+        <v>1.00552882218149</v>
+      </c>
+      <c r="O25">
+        <v>1.006105641873525</v>
+      </c>
+      <c r="P25">
+        <v>1.002579380566094</v>
+      </c>
+      <c r="Q25">
+        <v>1.002579380566094</v>
+      </c>
+      <c r="R25">
+        <v>1.001104659758396</v>
+      </c>
+      <c r="S25">
+        <v>1.001104659758396</v>
+      </c>
+      <c r="T25">
+        <v>1.000581060276718</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.088980139865029</v>
+      </c>
+      <c r="D26">
+        <v>0.9135493954117723</v>
+      </c>
+      <c r="E26">
+        <v>0.9416945885620734</v>
+      </c>
+      <c r="F26">
+        <v>0.958411292827046</v>
+      </c>
+      <c r="G26">
+        <v>1.173352868256496</v>
+      </c>
+      <c r="H26">
+        <v>0.9652905934511633</v>
+      </c>
+      <c r="I26">
+        <v>1.173352868256496</v>
+      </c>
+      <c r="J26">
+        <v>0.9416945885620734</v>
+      </c>
+      <c r="K26">
+        <v>0.9416945885620734</v>
+      </c>
+      <c r="L26">
+        <v>0.9652905934511633</v>
+      </c>
+      <c r="M26">
+        <v>1.06932173085383</v>
+      </c>
+      <c r="N26">
+        <v>1.06932173085383</v>
+      </c>
+      <c r="O26">
+        <v>1.075874533857563</v>
+      </c>
+      <c r="P26">
+        <v>1.026779350089911</v>
+      </c>
+      <c r="Q26">
+        <v>1.026779350089911</v>
+      </c>
+      <c r="R26">
+        <v>1.005508159707952</v>
+      </c>
+      <c r="S26">
+        <v>1.005508159707952</v>
+      </c>
+      <c r="T26">
+        <v>1.006879813062263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.023475583699041</v>
+      </c>
+      <c r="D27">
+        <v>0.9627373446283207</v>
+      </c>
+      <c r="E27">
+        <v>0.9960997677407645</v>
+      </c>
+      <c r="F27">
+        <v>0.9899307933374332</v>
+      </c>
+      <c r="G27">
+        <v>1.037000495124408</v>
+      </c>
+      <c r="H27">
+        <v>0.9873921225213264</v>
+      </c>
+      <c r="I27">
+        <v>1.037000495124408</v>
+      </c>
+      <c r="J27">
+        <v>0.9960997677407645</v>
+      </c>
+      <c r="K27">
+        <v>0.9960997677407645</v>
+      </c>
+      <c r="L27">
+        <v>0.9873921225213264</v>
+      </c>
+      <c r="M27">
+        <v>1.012196308822867</v>
+      </c>
+      <c r="N27">
+        <v>1.012196308822867</v>
+      </c>
+      <c r="O27">
+        <v>1.015956067114925</v>
+      </c>
+      <c r="P27">
+        <v>1.006830795128833</v>
+      </c>
+      <c r="Q27">
+        <v>1.006830795128833</v>
+      </c>
+      <c r="R27">
+        <v>1.004148038281816</v>
+      </c>
+      <c r="S27">
+        <v>1.004148038281816</v>
+      </c>
+      <c r="T27">
+        <v>0.9994393511752157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.964696624830075</v>
+      </c>
+      <c r="D28">
+        <v>1.037214287482251</v>
+      </c>
+      <c r="E28">
+        <v>1.020568461652292</v>
+      </c>
+      <c r="F28">
+        <v>1.016374941528941</v>
+      </c>
+      <c r="G28">
+        <v>0.9325856593864736</v>
+      </c>
+      <c r="H28">
+        <v>1.014649218891786</v>
+      </c>
+      <c r="I28">
+        <v>0.9325856593864736</v>
+      </c>
+      <c r="J28">
+        <v>1.020568461652292</v>
+      </c>
+      <c r="K28">
+        <v>1.020568461652292</v>
+      </c>
+      <c r="L28">
+        <v>1.014649218891786</v>
+      </c>
+      <c r="M28">
+        <v>0.9736174391391298</v>
+      </c>
+      <c r="N28">
+        <v>0.9736174391391298</v>
+      </c>
+      <c r="O28">
+        <v>0.9706438343694449</v>
+      </c>
+      <c r="P28">
+        <v>0.9892677799768506</v>
+      </c>
+      <c r="Q28">
+        <v>0.9892677799768506</v>
+      </c>
+      <c r="R28">
+        <v>0.9970929503957109</v>
+      </c>
+      <c r="S28">
+        <v>0.9970929503957109</v>
+      </c>
+      <c r="T28">
+        <v>0.9976815322953031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9711379279799839</v>
+      </c>
+      <c r="D29">
+        <v>1.032088825492643</v>
+      </c>
+      <c r="E29">
+        <v>1.015383370202557</v>
+      </c>
+      <c r="F29">
+        <v>1.013308170673315</v>
+      </c>
+      <c r="G29">
+        <v>0.9457165260767108</v>
+      </c>
+      <c r="H29">
+        <v>1.01245418271627</v>
+      </c>
+      <c r="I29">
+        <v>0.9457165260767108</v>
+      </c>
+      <c r="J29">
+        <v>1.015383370202557</v>
+      </c>
+      <c r="K29">
+        <v>1.015383370202557</v>
+      </c>
+      <c r="L29">
+        <v>1.01245418271627</v>
+      </c>
+      <c r="M29">
+        <v>0.9790853543964904</v>
+      </c>
+      <c r="N29">
+        <v>0.9790853543964904</v>
+      </c>
+      <c r="O29">
+        <v>0.976436212257655</v>
+      </c>
+      <c r="P29">
+        <v>0.9911846929985125</v>
+      </c>
+      <c r="Q29">
+        <v>0.9911846929985124</v>
+      </c>
+      <c r="R29">
+        <v>0.9972343622995236</v>
+      </c>
+      <c r="S29">
+        <v>0.9972343622995236</v>
+      </c>
+      <c r="T29">
+        <v>0.9983481671902467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.984046143663321</v>
+      </c>
+      <c r="D30">
+        <v>1.021709102047522</v>
+      </c>
+      <c r="E30">
+        <v>1.005088809794919</v>
+      </c>
+      <c r="F30">
+        <v>1.007166918989229</v>
+      </c>
+      <c r="G30">
+        <v>0.9719810354208561</v>
+      </c>
+      <c r="H30">
+        <v>1.008022109686906</v>
+      </c>
+      <c r="I30">
+        <v>0.9719810354208561</v>
+      </c>
+      <c r="J30">
+        <v>1.005088809794919</v>
+      </c>
+      <c r="K30">
+        <v>1.005088809794919</v>
+      </c>
+      <c r="L30">
+        <v>1.008022109686906</v>
+      </c>
+      <c r="M30">
+        <v>0.9900015725538813</v>
+      </c>
+      <c r="N30">
+        <v>0.9900015725538813</v>
+      </c>
+      <c r="O30">
+        <v>0.9880164295903612</v>
+      </c>
+      <c r="P30">
+        <v>0.9950306516342273</v>
+      </c>
+      <c r="Q30">
+        <v>0.9950306516342273</v>
+      </c>
+      <c r="R30">
+        <v>0.9975451911744002</v>
+      </c>
+      <c r="S30">
+        <v>0.9975451911744002</v>
+      </c>
+      <c r="T30">
+        <v>0.9996690199337922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9822605468448695</v>
+      </c>
+      <c r="D31">
+        <v>1.025067706001886</v>
+      </c>
+      <c r="E31">
+        <v>1.004762322890375</v>
+      </c>
+      <c r="F31">
+        <v>1.00794686918477</v>
+      </c>
+      <c r="G31">
+        <v>0.9691545649702216</v>
+      </c>
+      <c r="H31">
+        <v>1.00925738289974</v>
+      </c>
+      <c r="I31">
+        <v>0.9691545649702216</v>
+      </c>
+      <c r="J31">
+        <v>1.004762322890375</v>
+      </c>
+      <c r="K31">
+        <v>1.004762322890375</v>
+      </c>
+      <c r="L31">
+        <v>1.00925738289974</v>
+      </c>
+      <c r="M31">
+        <v>0.9892059739349807</v>
+      </c>
+      <c r="N31">
+        <v>0.9892059739349807</v>
+      </c>
+      <c r="O31">
+        <v>0.9868908315716102</v>
+      </c>
+      <c r="P31">
+        <v>0.9943914235867789</v>
+      </c>
+      <c r="Q31">
+        <v>0.9943914235867789</v>
+      </c>
+      <c r="R31">
+        <v>0.996984148412678</v>
+      </c>
+      <c r="S31">
+        <v>0.996984148412678</v>
+      </c>
+      <c r="T31">
+        <v>0.9997415654653103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9572018608219174</v>
+      </c>
+      <c r="D32">
+        <v>1.0426058</v>
+      </c>
+      <c r="E32">
+        <v>1.027141516438356</v>
+      </c>
+      <c r="F32">
+        <v>1.019959674520548</v>
+      </c>
+      <c r="G32">
+        <v>0.9170974517808218</v>
+      </c>
+      <c r="H32">
+        <v>1.017004191780822</v>
+      </c>
+      <c r="I32">
+        <v>0.9170974517808218</v>
+      </c>
+      <c r="J32">
+        <v>1.027141516438356</v>
+      </c>
+      <c r="K32">
+        <v>1.027141516438356</v>
+      </c>
+      <c r="L32">
+        <v>1.017004191780822</v>
+      </c>
+      <c r="M32">
+        <v>0.967050821780822</v>
+      </c>
+      <c r="N32">
+        <v>0.967050821780822</v>
+      </c>
+      <c r="O32">
+        <v>0.9637678347945204</v>
+      </c>
+      <c r="P32">
+        <v>0.9870810533333335</v>
+      </c>
+      <c r="Q32">
+        <v>0.9870810533333335</v>
+      </c>
+      <c r="R32">
+        <v>0.9970961691095892</v>
+      </c>
+      <c r="S32">
+        <v>0.9970961691095892</v>
+      </c>
+      <c r="T32">
+        <v>0.9968350825570776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9506080052631579</v>
+      </c>
+      <c r="D33">
+        <v>1.087502508947368</v>
+      </c>
+      <c r="E33">
+        <v>0.9989847457894734</v>
+      </c>
+      <c r="F33">
+        <v>1.021067582105263</v>
+      </c>
+      <c r="G33">
+        <v>0.9244842489473686</v>
+      </c>
+      <c r="H33">
+        <v>1.030155159473684</v>
+      </c>
+      <c r="I33">
+        <v>0.9244842489473686</v>
+      </c>
+      <c r="J33">
+        <v>0.9989847457894734</v>
+      </c>
+      <c r="K33">
+        <v>0.9989847457894734</v>
+      </c>
+      <c r="L33">
+        <v>1.030155159473684</v>
+      </c>
+      <c r="M33">
+        <v>0.9773197042105264</v>
+      </c>
+      <c r="N33">
+        <v>0.9773197042105264</v>
+      </c>
+      <c r="O33">
+        <v>0.9684158045614035</v>
+      </c>
+      <c r="P33">
+        <v>0.9845413847368421</v>
+      </c>
+      <c r="Q33">
+        <v>0.9845413847368421</v>
+      </c>
+      <c r="R33">
+        <v>0.9881522249999999</v>
+      </c>
+      <c r="S33">
+        <v>0.9881522249999999</v>
+      </c>
+      <c r="T33">
+        <v>1.002133708421053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.8881243999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.107467315789474</v>
+      </c>
+      <c r="E34">
+        <v>1.07554887368421</v>
+      </c>
+      <c r="F34">
+        <v>1.0520798</v>
+      </c>
+      <c r="G34">
+        <v>0.783314772631579</v>
+      </c>
+      <c r="H34">
+        <v>1.042421773684211</v>
+      </c>
+      <c r="I34">
+        <v>0.783314772631579</v>
+      </c>
+      <c r="J34">
+        <v>1.07554887368421</v>
+      </c>
+      <c r="K34">
+        <v>1.07554887368421</v>
+      </c>
+      <c r="L34">
+        <v>1.042421773684211</v>
+      </c>
+      <c r="M34">
+        <v>0.9128682731578948</v>
+      </c>
+      <c r="N34">
+        <v>0.9128682731578948</v>
+      </c>
+      <c r="O34">
+        <v>0.9046203154385966</v>
+      </c>
+      <c r="P34">
+        <v>0.96709514</v>
+      </c>
+      <c r="Q34">
+        <v>0.96709514</v>
+      </c>
+      <c r="R34">
+        <v>0.9942085734210526</v>
+      </c>
+      <c r="S34">
+        <v>0.9942085734210526</v>
+      </c>
+      <c r="T34">
+        <v>0.9914928226315788</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9372281913256516</v>
+      </c>
+      <c r="D35">
+        <v>1.09020609496449</v>
+      </c>
+      <c r="E35">
+        <v>1.015524702515173</v>
+      </c>
+      <c r="F35">
+        <v>1.028056563293067</v>
+      </c>
+      <c r="G35">
+        <v>0.8915485915858932</v>
+      </c>
+      <c r="H35">
+        <v>1.033213706819628</v>
+      </c>
+      <c r="I35">
+        <v>0.8915485915858932</v>
+      </c>
+      <c r="J35">
+        <v>1.015524702515173</v>
+      </c>
+      <c r="K35">
+        <v>1.015524702515173</v>
+      </c>
+      <c r="L35">
+        <v>1.033213706819628</v>
+      </c>
+      <c r="M35">
+        <v>0.9623811492027606</v>
+      </c>
+      <c r="N35">
+        <v>0.9623811492027606</v>
+      </c>
+      <c r="O35">
+        <v>0.953996829910391</v>
+      </c>
+      <c r="P35">
+        <v>0.9800956669735648</v>
+      </c>
+      <c r="Q35">
+        <v>0.9800956669735648</v>
+      </c>
+      <c r="R35">
+        <v>0.9889529258589669</v>
+      </c>
+      <c r="S35">
+        <v>0.9889529258589669</v>
+      </c>
+      <c r="T35">
+        <v>0.9992963084173171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999987540139732</v>
+      </c>
+      <c r="D36">
+        <v>1.000195147584102</v>
+      </c>
+      <c r="E36">
+        <v>0.9998296660507636</v>
+      </c>
+      <c r="F36">
+        <v>0.9999923382632764</v>
+      </c>
+      <c r="G36">
+        <v>1.000087561367134</v>
+      </c>
+      <c r="H36">
+        <v>1.00005928181512</v>
+      </c>
+      <c r="I36">
+        <v>1.000087561367134</v>
+      </c>
+      <c r="J36">
+        <v>0.9998296660507636</v>
+      </c>
+      <c r="K36">
+        <v>0.9998296660507636</v>
+      </c>
+      <c r="L36">
+        <v>1.00005928181512</v>
+      </c>
+      <c r="M36">
+        <v>1.000073421591127</v>
+      </c>
+      <c r="N36">
+        <v>1.000073421591127</v>
+      </c>
+      <c r="O36">
+        <v>1.000048532398742</v>
+      </c>
+      <c r="P36">
+        <v>0.9999921697443392</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999921697443392</v>
+      </c>
+      <c r="R36">
+        <v>0.9999515438209453</v>
+      </c>
+      <c r="S36">
+        <v>0.9999515438209453</v>
+      </c>
+      <c r="T36">
+        <v>1.000027124849062</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998348549309285</v>
+      </c>
+      <c r="D37">
+        <v>0.999956463521448</v>
+      </c>
+      <c r="E37">
+        <v>1.000287600669074</v>
+      </c>
+      <c r="F37">
+        <v>1.000086003325187</v>
+      </c>
+      <c r="G37">
+        <v>0.9995825990579139</v>
+      </c>
+      <c r="H37">
+        <v>1.000003041765353</v>
+      </c>
+      <c r="I37">
+        <v>0.9995825990579139</v>
+      </c>
+      <c r="J37">
+        <v>1.000287600669074</v>
+      </c>
+      <c r="K37">
+        <v>1.000287600669074</v>
+      </c>
+      <c r="L37">
+        <v>1.000003041765353</v>
+      </c>
+      <c r="M37">
+        <v>0.9997928204116334</v>
+      </c>
+      <c r="N37">
+        <v>0.9997928204116334</v>
+      </c>
+      <c r="O37">
+        <v>0.9998068319180651</v>
+      </c>
+      <c r="P37">
+        <v>0.9999577471641135</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999577471641135</v>
+      </c>
+      <c r="R37">
+        <v>1.000040210540353</v>
+      </c>
+      <c r="S37">
+        <v>1.000040210540353</v>
+      </c>
+      <c r="T37">
+        <v>0.9999584272116507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9994590124285605</v>
+      </c>
+      <c r="D38">
+        <v>1.001078700918749</v>
+      </c>
+      <c r="E38">
+        <v>0.9998675928230524</v>
+      </c>
+      <c r="F38">
+        <v>1.000229068876947</v>
+      </c>
+      <c r="G38">
+        <v>0.9992045918900968</v>
+      </c>
+      <c r="H38">
+        <v>1.000377826225473</v>
+      </c>
+      <c r="I38">
+        <v>0.9992045918900968</v>
+      </c>
+      <c r="J38">
+        <v>0.9998675928230524</v>
+      </c>
+      <c r="K38">
+        <v>0.9998675928230524</v>
+      </c>
+      <c r="L38">
+        <v>1.000377826225473</v>
+      </c>
+      <c r="M38">
+        <v>0.999791209057785</v>
+      </c>
+      <c r="N38">
+        <v>0.999791209057785</v>
+      </c>
+      <c r="O38">
+        <v>0.9996804768480434</v>
+      </c>
+      <c r="P38">
+        <v>0.9998166703128741</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998166703128741</v>
+      </c>
+      <c r="R38">
+        <v>0.9998294009404187</v>
+      </c>
+      <c r="S38">
+        <v>0.9998294009404187</v>
+      </c>
+      <c r="T38">
+        <v>1.000036132193813</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9987566330094116</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.003220877231659</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9990349440450281</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000496347300144</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9985061670276096</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.001097752555031</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9985061670276096</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9990349440450281</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9990349440450281</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001097752555031</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9998019597913202</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9998019597913202</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.999453517530684</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995462878758895</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9995462878758895</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9994184519181741</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9994184519181741</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000185453528147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9601021508036958</v>
+      </c>
+      <c r="D40">
+        <v>1.056948775840839</v>
+      </c>
+      <c r="E40">
+        <v>1.010764570222414</v>
+      </c>
+      <c r="F40">
+        <v>1.017723192629268</v>
+      </c>
+      <c r="G40">
+        <v>0.9317743282378965</v>
+      </c>
+      <c r="H40">
+        <v>1.020586823189489</v>
+      </c>
+      <c r="I40">
+        <v>0.9317743282378965</v>
+      </c>
+      <c r="J40">
+        <v>1.010764570222414</v>
+      </c>
+      <c r="K40">
+        <v>1.010764570222414</v>
+      </c>
+      <c r="L40">
+        <v>1.020586823189489</v>
+      </c>
+      <c r="M40">
+        <v>0.976180575713693</v>
+      </c>
+      <c r="N40">
+        <v>0.976180575713693</v>
+      </c>
+      <c r="O40">
+        <v>0.9708211007436939</v>
+      </c>
+      <c r="P40">
+        <v>0.9877085738832667</v>
+      </c>
+      <c r="Q40">
+        <v>0.9877085738832667</v>
+      </c>
+      <c r="R40">
+        <v>0.9934725729680536</v>
+      </c>
+      <c r="S40">
+        <v>0.9934725729680536</v>
+      </c>
+      <c r="T40">
+        <v>0.9996499734872671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000356033406033</v>
+      </c>
+      <c r="D41">
+        <v>0.9984446202301718</v>
+      </c>
+      <c r="E41">
+        <v>1.000793553064311</v>
+      </c>
+      <c r="F41">
+        <v>0.9998941887403896</v>
+      </c>
+      <c r="G41">
+        <v>1.000067917378875</v>
+      </c>
+      <c r="H41">
+        <v>0.9995240819094638</v>
+      </c>
+      <c r="I41">
+        <v>1.000067917378875</v>
+      </c>
+      <c r="J41">
+        <v>1.000793553064311</v>
+      </c>
+      <c r="K41">
+        <v>1.000793553064311</v>
+      </c>
+      <c r="L41">
+        <v>0.9995240819094638</v>
+      </c>
+      <c r="M41">
+        <v>0.9997959996441694</v>
+      </c>
+      <c r="N41">
+        <v>0.9997959996441694</v>
+      </c>
+      <c r="O41">
+        <v>0.9999826775647905</v>
+      </c>
+      <c r="P41">
+        <v>1.000128517450883</v>
+      </c>
+      <c r="Q41">
+        <v>1.000128517450883</v>
+      </c>
+      <c r="R41">
+        <v>1.00029477635424</v>
+      </c>
+      <c r="S41">
+        <v>1.00029477635424</v>
+      </c>
+      <c r="T41">
+        <v>0.999846732454874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9601031385939531</v>
+      </c>
+      <c r="D42">
+        <v>1.057708266046209</v>
+      </c>
+      <c r="E42">
+        <v>1.01012508395644</v>
+      </c>
+      <c r="F42">
+        <v>1.01768309015814</v>
+      </c>
+      <c r="G42">
+        <v>0.9321804913686139</v>
+      </c>
+      <c r="H42">
+        <v>1.020793382103557</v>
+      </c>
+      <c r="I42">
+        <v>0.9321804913686139</v>
+      </c>
+      <c r="J42">
+        <v>1.01012508395644</v>
+      </c>
+      <c r="K42">
+        <v>1.01012508395644</v>
+      </c>
+      <c r="L42">
+        <v>1.020793382103557</v>
+      </c>
+      <c r="M42">
+        <v>0.9764869367360853</v>
+      </c>
+      <c r="N42">
+        <v>0.9764869367360853</v>
+      </c>
+      <c r="O42">
+        <v>0.9710256706887078</v>
+      </c>
+      <c r="P42">
+        <v>0.9876996524762034</v>
+      </c>
+      <c r="Q42">
+        <v>0.9876996524762035</v>
+      </c>
+      <c r="R42">
+        <v>0.9933060103462625</v>
+      </c>
+      <c r="S42">
+        <v>0.9933060103462625</v>
+      </c>
+      <c r="T42">
+        <v>0.9997655753711522</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001093927610886</v>
+        <v>0.9996004369912048</v>
       </c>
       <c r="D3">
-        <v>0.9965148358606675</v>
+        <v>1.000500468191307</v>
       </c>
       <c r="E3">
-        <v>1.000739236266488</v>
+        <v>1.000165352751655</v>
       </c>
       <c r="F3">
-        <v>1.001093927610886</v>
+        <v>1.000181389717294</v>
       </c>
       <c r="G3">
-        <v>1.001860695444487</v>
+        <v>0.9992778076594167</v>
       </c>
       <c r="H3">
-        <v>0.9981893387767066</v>
+        <v>1.000187989601193</v>
       </c>
       <c r="I3">
-        <v>1.000842643944543</v>
+        <v>0.9992778076594167</v>
       </c>
       <c r="J3">
-        <v>0.9965148358606675</v>
+        <v>1.000165352751655</v>
       </c>
       <c r="K3">
-        <v>1.001093927610886</v>
+        <v>1.000165352751655</v>
       </c>
       <c r="L3">
-        <v>1.000739236266488</v>
+        <v>1.000187989601193</v>
       </c>
       <c r="M3">
-        <v>0.9986270360635775</v>
+        <v>0.9997328986303049</v>
       </c>
       <c r="N3">
-        <v>0.9986270360635775</v>
+        <v>0.9997328986303049</v>
       </c>
       <c r="O3">
-        <v>0.9984811369679538</v>
+        <v>0.9996887447506048</v>
       </c>
       <c r="P3">
-        <v>0.9994493332460138</v>
+        <v>0.9998770500040884</v>
       </c>
       <c r="Q3">
-        <v>0.9994493332460138</v>
+        <v>0.9998770500040884</v>
       </c>
       <c r="R3">
-        <v>0.999860481837232</v>
+        <v>0.9999491256909802</v>
       </c>
       <c r="S3">
-        <v>0.999860481837232</v>
+        <v>0.9999491256909802</v>
       </c>
       <c r="T3">
-        <v>0.9998734463172965</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999855741520118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002138434282135</v>
+        <v>0.9601021508036958</v>
       </c>
       <c r="D4">
-        <v>0.993261476598603</v>
+        <v>1.056948775840839</v>
       </c>
       <c r="E4">
-        <v>1.001417687597225</v>
+        <v>1.010764570222414</v>
       </c>
       <c r="F4">
-        <v>1.002138434282135</v>
+        <v>1.017723192629268</v>
       </c>
       <c r="G4">
-        <v>1.00356694026398</v>
+        <v>0.9317743282378965</v>
       </c>
       <c r="H4">
-        <v>0.9965033106417149</v>
+        <v>1.020586823189489</v>
       </c>
       <c r="I4">
-        <v>1.001627817092831</v>
+        <v>0.9317743282378965</v>
       </c>
       <c r="J4">
-        <v>0.993261476598603</v>
+        <v>1.010764570222414</v>
       </c>
       <c r="K4">
-        <v>1.002138434282135</v>
+        <v>1.010764570222414</v>
       </c>
       <c r="L4">
-        <v>1.001417687597225</v>
+        <v>1.020586823189489</v>
       </c>
       <c r="M4">
-        <v>0.9973395820979141</v>
+        <v>0.976180575713693</v>
       </c>
       <c r="N4">
-        <v>0.9973395820979141</v>
+        <v>0.976180575713693</v>
       </c>
       <c r="O4">
-        <v>0.9970608249458476</v>
+        <v>0.9708211007436939</v>
       </c>
       <c r="P4">
-        <v>0.9989391994926544</v>
+        <v>0.9877085738832667</v>
       </c>
       <c r="Q4">
-        <v>0.9989391994926544</v>
+        <v>0.9877085738832667</v>
       </c>
       <c r="R4">
-        <v>0.9997390081900246</v>
+        <v>0.9934725729680536</v>
       </c>
       <c r="S4">
-        <v>0.9997390081900246</v>
+        <v>0.9934725729680536</v>
       </c>
       <c r="T4">
-        <v>0.9997526110794149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9996499734872671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.003988096593923</v>
+        <v>0.9799617311383295</v>
       </c>
       <c r="D5">
-        <v>0.9871445274565329</v>
+        <v>1.02672825871758</v>
       </c>
       <c r="E5">
-        <v>1.002753180749393</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="F5">
-        <v>1.003988096593923</v>
+        <v>1.00902859835735</v>
       </c>
       <c r="G5">
-        <v>1.006949399877729</v>
+        <v>0.96453010345101</v>
       </c>
       <c r="H5">
-        <v>0.9933032741436865</v>
+        <v>1.009925310677235</v>
       </c>
       <c r="I5">
-        <v>1.003113210143855</v>
+        <v>0.96453010345101</v>
       </c>
       <c r="J5">
-        <v>0.9871445274565329</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="K5">
-        <v>1.003988096593923</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="L5">
-        <v>1.002753180749393</v>
+        <v>1.009925310677235</v>
       </c>
       <c r="M5">
-        <v>0.9949488541029631</v>
+        <v>0.9872277070641227</v>
       </c>
       <c r="N5">
-        <v>0.9949488541029631</v>
+        <v>0.9872277070641227</v>
       </c>
       <c r="O5">
-        <v>0.9944003274498708</v>
+        <v>0.9848057150888584</v>
       </c>
       <c r="P5">
-        <v>0.9979619349332829</v>
+        <v>0.993768333734392</v>
       </c>
       <c r="Q5">
-        <v>0.9979619349332829</v>
+        <v>0.993768333734392</v>
       </c>
       <c r="R5">
-        <v>0.9994684753484429</v>
+        <v>0.9970386470695267</v>
       </c>
       <c r="S5">
-        <v>0.9994684753484429</v>
+        <v>0.9970386470695267</v>
       </c>
       <c r="T5">
-        <v>0.9995419481608532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.999503931569406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.005800892374116</v>
+        <v>0.9372281913256516</v>
       </c>
       <c r="D6">
-        <v>0.9811694820443064</v>
+        <v>1.09020609496449</v>
       </c>
       <c r="E6">
-        <v>1.004054233546591</v>
+        <v>1.015524702515173</v>
       </c>
       <c r="F6">
-        <v>1.005800892374116</v>
+        <v>1.028056563293067</v>
       </c>
       <c r="G6">
-        <v>1.010241815161536</v>
+        <v>0.8915485915858932</v>
       </c>
       <c r="H6">
-        <v>0.9901799858163755</v>
+        <v>1.033213706819628</v>
       </c>
       <c r="I6">
-        <v>1.004563445396709</v>
+        <v>0.8915485915858932</v>
       </c>
       <c r="J6">
-        <v>0.9811694820443064</v>
+        <v>1.015524702515173</v>
       </c>
       <c r="K6">
-        <v>1.005800892374116</v>
+        <v>1.015524702515173</v>
       </c>
       <c r="L6">
-        <v>1.004054233546591</v>
+        <v>1.033213706819628</v>
       </c>
       <c r="M6">
-        <v>0.9926118577954486</v>
+        <v>0.9623811492027606</v>
       </c>
       <c r="N6">
-        <v>0.9926118577954486</v>
+        <v>0.9623811492027606</v>
       </c>
       <c r="O6">
-        <v>0.9918012338024242</v>
+        <v>0.953996829910391</v>
       </c>
       <c r="P6">
-        <v>0.9970082026550046</v>
+        <v>0.9800956669735648</v>
       </c>
       <c r="Q6">
-        <v>0.9970082026550046</v>
+        <v>0.9800956669735648</v>
       </c>
       <c r="R6">
-        <v>0.9992063750847826</v>
+        <v>0.9889529258589669</v>
       </c>
       <c r="S6">
-        <v>0.9992063750847826</v>
+        <v>0.9889529258589669</v>
       </c>
       <c r="T6">
-        <v>0.9993349757232725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9992963084173171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000047313612902</v>
+        <v>0.997618587145663</v>
       </c>
       <c r="D7">
-        <v>0.999756146567357</v>
+        <v>1.002295637934421</v>
       </c>
       <c r="E7">
-        <v>1.000068057784393</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="F7">
-        <v>1.000047313612902</v>
+        <v>1.001112174576638</v>
       </c>
       <c r="G7">
-        <v>1.000182920673355</v>
+        <v>0.9953636896666166</v>
       </c>
       <c r="H7">
-        <v>0.9998624887471688</v>
+        <v>1.000918138865522</v>
       </c>
       <c r="I7">
-        <v>1.00006200988025</v>
+        <v>0.9953636896666166</v>
       </c>
       <c r="J7">
-        <v>0.999756146567357</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="K7">
-        <v>1.000047313612902</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="L7">
-        <v>1.000068057784393</v>
+        <v>1.000918138865522</v>
       </c>
       <c r="M7">
-        <v>0.9999121021758748</v>
+        <v>0.9981409142660691</v>
       </c>
       <c r="N7">
-        <v>0.9999121021758748</v>
+        <v>0.9981409142660691</v>
       </c>
       <c r="O7">
-        <v>0.9998955643663061</v>
+        <v>0.9979668052259337</v>
       </c>
       <c r="P7">
-        <v>0.9999571726548838</v>
+        <v>0.9992885043714379</v>
       </c>
       <c r="Q7">
-        <v>0.9999571726548838</v>
+        <v>0.9992885043714379</v>
       </c>
       <c r="R7">
-        <v>0.9999797078943884</v>
+        <v>0.9998622994241224</v>
       </c>
       <c r="S7">
-        <v>0.9999797078943884</v>
+        <v>0.9998622994241224</v>
       </c>
       <c r="T7">
-        <v>0.9999964895442376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9998153187951727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000165352751655</v>
+        <v>0.9998348549309285</v>
       </c>
       <c r="D8">
-        <v>0.9992778076594167</v>
+        <v>0.999956463521448</v>
       </c>
       <c r="E8">
-        <v>1.000187989601193</v>
+        <v>1.000287600669074</v>
       </c>
       <c r="F8">
-        <v>1.000165352751655</v>
+        <v>1.000086003325187</v>
       </c>
       <c r="G8">
-        <v>1.000500468191307</v>
+        <v>0.9995825990579139</v>
       </c>
       <c r="H8">
-        <v>0.9996004369912053</v>
+        <v>1.000003041765353</v>
       </c>
       <c r="I8">
-        <v>1.000181389717294</v>
+        <v>0.9995825990579139</v>
       </c>
       <c r="J8">
-        <v>0.9992778076594167</v>
+        <v>1.000287600669074</v>
       </c>
       <c r="K8">
-        <v>1.000165352751655</v>
+        <v>1.000287600669074</v>
       </c>
       <c r="L8">
-        <v>1.000187989601193</v>
+        <v>1.000003041765353</v>
       </c>
       <c r="M8">
-        <v>0.9997328986303049</v>
+        <v>0.9997928204116334</v>
       </c>
       <c r="N8">
-        <v>0.9997328986303049</v>
+        <v>0.9997928204116334</v>
       </c>
       <c r="O8">
-        <v>0.9996887447506051</v>
+        <v>0.9998068319180651</v>
       </c>
       <c r="P8">
-        <v>0.9998770500040884</v>
+        <v>0.9999577471641135</v>
       </c>
       <c r="Q8">
-        <v>0.9998770500040884</v>
+        <v>0.9999577471641135</v>
       </c>
       <c r="R8">
-        <v>0.9999491256909802</v>
+        <v>1.000040210540353</v>
       </c>
       <c r="S8">
-        <v>0.9999491256909802</v>
+        <v>1.000040210540353</v>
       </c>
       <c r="T8">
-        <v>0.9999855741520119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999584272116507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000276831335572</v>
+        <v>0.9965033106417149</v>
       </c>
       <c r="D9">
-        <v>0.9989770611064386</v>
+        <v>1.00356694026398</v>
       </c>
       <c r="E9">
-        <v>1.000243423055616</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="F9">
-        <v>1.000276831335572</v>
+        <v>1.001627817092831</v>
       </c>
       <c r="G9">
-        <v>1.000639723172285</v>
+        <v>0.993261476598603</v>
       </c>
       <c r="H9">
-        <v>0.9994468172367945</v>
+        <v>1.001417687597225</v>
       </c>
       <c r="I9">
-        <v>1.000253163667829</v>
+        <v>0.993261476598603</v>
       </c>
       <c r="J9">
-        <v>0.9989770611064386</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="K9">
-        <v>1.000276831335572</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="L9">
-        <v>1.000243423055616</v>
+        <v>1.001417687597225</v>
       </c>
       <c r="M9">
-        <v>0.9996102420810271</v>
+        <v>0.9973395820979141</v>
       </c>
       <c r="N9">
-        <v>0.9996102420810271</v>
+        <v>0.9973395820979141</v>
       </c>
       <c r="O9">
-        <v>0.9995557671329496</v>
+        <v>0.9970608249458476</v>
       </c>
       <c r="P9">
-        <v>0.9998324384992087</v>
+        <v>0.9989391994926544</v>
       </c>
       <c r="Q9">
-        <v>0.9998324384992087</v>
+        <v>0.9989391994926544</v>
       </c>
       <c r="R9">
-        <v>0.9999435367082995</v>
+        <v>0.9997390081900246</v>
       </c>
       <c r="S9">
-        <v>0.9999435367082995</v>
+        <v>0.9997390081900246</v>
       </c>
       <c r="T9">
-        <v>0.9999728365957558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9997526110794149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000538981586816</v>
+        <v>0.936307856689966</v>
       </c>
       <c r="D10">
-        <v>0.9978214187162568</v>
+        <v>1.091755390290611</v>
       </c>
       <c r="E10">
-        <v>1.000545585270028</v>
+        <v>1.015518864125654</v>
       </c>
       <c r="F10">
-        <v>1.000538981586816</v>
+        <v>1.028465840561865</v>
       </c>
       <c r="G10">
-        <v>1.001444799483243</v>
+        <v>0.8900105973830438</v>
       </c>
       <c r="H10">
-        <v>0.9988066063677995</v>
+        <v>1.033793813685377</v>
       </c>
       <c r="I10">
-        <v>1.000543660657417</v>
+        <v>0.8900105973830438</v>
       </c>
       <c r="J10">
-        <v>0.9978214187162568</v>
+        <v>1.015518864125654</v>
       </c>
       <c r="K10">
-        <v>1.000538981586816</v>
+        <v>1.015518864125654</v>
       </c>
       <c r="L10">
-        <v>1.000545585270028</v>
+        <v>1.033793813685377</v>
       </c>
       <c r="M10">
-        <v>0.9991835019931423</v>
+        <v>0.9619022055342101</v>
       </c>
       <c r="N10">
-        <v>0.9991835019931423</v>
+        <v>0.9619022055342101</v>
       </c>
       <c r="O10">
-        <v>0.999057870118028</v>
+        <v>0.9533707559194621</v>
       </c>
       <c r="P10">
-        <v>0.9996353285243668</v>
+        <v>0.9797744250646915</v>
       </c>
       <c r="Q10">
-        <v>0.9996353285243668</v>
+        <v>0.9797744250646915</v>
       </c>
       <c r="R10">
-        <v>0.999861241789979</v>
+        <v>0.9887105348299321</v>
       </c>
       <c r="S10">
-        <v>0.999861241789979</v>
+        <v>0.9887105348299321</v>
       </c>
       <c r="T10">
-        <v>0.9999501753469268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9993087271227528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00105209040696</v>
+        <v>0.9600724058184479</v>
       </c>
       <c r="D11">
-        <v>0.9962692303068511</v>
+        <v>1.055889289151452</v>
       </c>
       <c r="E11">
-        <v>1.000864797392944</v>
+        <v>1.011701415740134</v>
       </c>
       <c r="F11">
-        <v>1.00105209040696</v>
+        <v>1.017793143220692</v>
       </c>
       <c r="G11">
-        <v>1.002262408679872</v>
+        <v>0.931142647509746</v>
       </c>
       <c r="H11">
-        <v>0.9979959229610685</v>
+        <v>1.020300026424709</v>
       </c>
       <c r="I11">
-        <v>1.00091939972264</v>
+        <v>0.931142647509746</v>
       </c>
       <c r="J11">
-        <v>0.9962692303068511</v>
+        <v>1.011701415740134</v>
       </c>
       <c r="K11">
-        <v>1.00105209040696</v>
+        <v>1.011701415740134</v>
       </c>
       <c r="L11">
-        <v>1.000864797392944</v>
+        <v>1.020300026424709</v>
       </c>
       <c r="M11">
-        <v>0.9985670138498977</v>
+        <v>0.9757213369672273</v>
       </c>
       <c r="N11">
-        <v>0.9985670138498977</v>
+        <v>0.9757213369672273</v>
       </c>
       <c r="O11">
-        <v>0.9983766502202879</v>
+        <v>0.9705050265843008</v>
       </c>
       <c r="P11">
-        <v>0.9993953727022516</v>
+        <v>0.9877146965581961</v>
       </c>
       <c r="Q11">
-        <v>0.9993953727022516</v>
+        <v>0.9877146965581961</v>
       </c>
       <c r="R11">
-        <v>0.9998095521284287</v>
+        <v>0.9937113763536807</v>
       </c>
       <c r="S11">
-        <v>0.9998095521284287</v>
+        <v>0.9937113763536807</v>
       </c>
       <c r="T11">
-        <v>0.9998939749117226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9994831546441968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9878490413674782</v>
+        <v>0.9796202339789472</v>
       </c>
       <c r="D12">
-        <v>1.049917634539595</v>
+        <v>1.028777884189473</v>
       </c>
       <c r="E12">
-        <v>0.9871025554848726</v>
+        <v>1.005496108800002</v>
       </c>
       <c r="F12">
-        <v>0.9878490413674782</v>
+        <v>1.009129066105263</v>
       </c>
       <c r="G12">
-        <v>0.9642530786848523</v>
+        <v>0.9645643578000017</v>
       </c>
       <c r="H12">
-        <v>1.028305672081557</v>
+        <v>1.010624109684213</v>
       </c>
       <c r="I12">
-        <v>0.9873201833601503</v>
+        <v>0.9645643578000017</v>
       </c>
       <c r="J12">
-        <v>1.049917634539595</v>
+        <v>1.005496108800002</v>
       </c>
       <c r="K12">
-        <v>0.9878490413674782</v>
+        <v>1.005496108800002</v>
       </c>
       <c r="L12">
-        <v>0.9871025554848726</v>
+        <v>1.010624109684213</v>
       </c>
       <c r="M12">
-        <v>1.018510095012234</v>
+        <v>0.9875942337421073</v>
       </c>
       <c r="N12">
-        <v>1.018510095012234</v>
+        <v>0.9875942337421073</v>
       </c>
       <c r="O12">
-        <v>1.021775287368675</v>
+        <v>0.9849362338210539</v>
       </c>
       <c r="P12">
-        <v>1.008289743797315</v>
+        <v>0.9935615254280722</v>
       </c>
       <c r="Q12">
-        <v>1.008289743797315</v>
+        <v>0.9935615254280722</v>
       </c>
       <c r="R12">
-        <v>1.003179568189856</v>
+        <v>0.9965451712710546</v>
       </c>
       <c r="S12">
-        <v>1.003179568189856</v>
+        <v>0.9965451712710546</v>
       </c>
       <c r="T12">
-        <v>1.000791360919751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9997019600929834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9966804973353023</v>
+        <v>1.01263856843759</v>
       </c>
       <c r="D13">
-        <v>1.014606381594527</v>
+        <v>0.9844568044135794</v>
       </c>
       <c r="E13">
-        <v>0.9964512627684543</v>
+        <v>0.9943796980217279</v>
       </c>
       <c r="F13">
-        <v>0.9966804973353023</v>
+        <v>0.9942812371114301</v>
       </c>
       <c r="G13">
-        <v>0.9919708427466659</v>
+        <v>1.022759269924831</v>
       </c>
       <c r="H13">
-        <v>1.007259281257592</v>
+        <v>0.994240718211117</v>
       </c>
       <c r="I13">
-        <v>0.9965180959577649</v>
+        <v>1.022759269924831</v>
       </c>
       <c r="J13">
-        <v>1.014606381594527</v>
+        <v>0.9943796980217279</v>
       </c>
       <c r="K13">
-        <v>0.9966804973353023</v>
+        <v>0.9943796980217279</v>
       </c>
       <c r="L13">
-        <v>0.9964512627684543</v>
+        <v>0.994240718211117</v>
       </c>
       <c r="M13">
-        <v>1.00552882218149</v>
+        <v>1.008499994067974</v>
       </c>
       <c r="N13">
-        <v>1.00552882218149</v>
+        <v>1.008499994067974</v>
       </c>
       <c r="O13">
-        <v>1.006105641873524</v>
+        <v>1.009879518857846</v>
       </c>
       <c r="P13">
-        <v>1.002579380566094</v>
+        <v>1.003793228719225</v>
       </c>
       <c r="Q13">
-        <v>1.002579380566094</v>
+        <v>1.003793228719225</v>
       </c>
       <c r="R13">
-        <v>1.001104659758396</v>
+        <v>1.001439846044851</v>
       </c>
       <c r="S13">
-        <v>1.001104659758396</v>
+        <v>1.001439846044851</v>
       </c>
       <c r="T13">
-        <v>1.000581060276718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000459382686712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9416945885620734</v>
+        <v>0.889978380000001</v>
       </c>
       <c r="D14">
-        <v>1.173352868256496</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="E14">
-        <v>0.9652905934511633</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="F14">
-        <v>0.9416945885620734</v>
+        <v>1.0491494</v>
       </c>
       <c r="G14">
-        <v>0.9135493954117723</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="H14">
-        <v>1.088980139865029</v>
+        <v>1.0585587</v>
       </c>
       <c r="I14">
-        <v>0.958411292827046</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="J14">
-        <v>1.173352868256496</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="K14">
-        <v>0.9416945885620734</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="L14">
-        <v>0.9652905934511633</v>
+        <v>1.0585587</v>
       </c>
       <c r="M14">
-        <v>1.06932173085383</v>
+        <v>0.9344083750000007</v>
       </c>
       <c r="N14">
-        <v>1.06932173085383</v>
+        <v>0.9344083750000007</v>
       </c>
       <c r="O14">
-        <v>1.075874533857563</v>
+        <v>0.9195983766666674</v>
       </c>
       <c r="P14">
-        <v>1.026779350089911</v>
+        <v>0.9650338500000002</v>
       </c>
       <c r="Q14">
-        <v>1.026779350089911</v>
+        <v>0.9650338500000002</v>
       </c>
       <c r="R14">
-        <v>1.005508159707952</v>
+        <v>0.9803465874999999</v>
       </c>
       <c r="S14">
-        <v>1.005508159707952</v>
+        <v>0.9803465874999999</v>
       </c>
       <c r="T14">
-        <v>1.006879813062263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9988846550000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9960997677407647</v>
+        <v>0.88627042</v>
       </c>
       <c r="D15">
-        <v>1.037000495124408</v>
+        <v>1.055856</v>
       </c>
       <c r="E15">
-        <v>0.9873921225213264</v>
+        <v>1.1248129</v>
       </c>
       <c r="F15">
-        <v>0.9960997677407647</v>
+        <v>1.0550102</v>
       </c>
       <c r="G15">
-        <v>0.9627373446283207</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H15">
-        <v>1.023475583699041</v>
+        <v>1.0262848</v>
       </c>
       <c r="I15">
-        <v>0.9899307933374331</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="J15">
-        <v>1.037000495124408</v>
+        <v>1.1248129</v>
       </c>
       <c r="K15">
-        <v>0.9960997677407647</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>0.9873921225213264</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>1.012196308822867</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>1.012196308822867</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>1.015956067114925</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>1.006830795128833</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>1.006830795128833</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>1.004148038281816</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>1.004148038281816</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>0.9994393511752157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998296660507636</v>
+        <v>0.70656223</v>
       </c>
       <c r="D16">
-        <v>1.000087561367134</v>
+        <v>1.4462575</v>
       </c>
       <c r="E16">
-        <v>1.00005928181512</v>
+        <v>1.055856</v>
       </c>
       <c r="F16">
-        <v>0.9998296660507636</v>
+        <v>1.1289846</v>
       </c>
       <c r="G16">
-        <v>1.000195147584102</v>
+        <v>0.5123396</v>
       </c>
       <c r="H16">
-        <v>0.9999987540139732</v>
+        <v>1.1590786</v>
       </c>
       <c r="I16">
-        <v>0.9999923382632764</v>
+        <v>0.5123396</v>
       </c>
       <c r="J16">
-        <v>1.000087561367134</v>
+        <v>1.055856</v>
       </c>
       <c r="K16">
-        <v>0.9998296660507636</v>
+        <v>1.055856</v>
       </c>
       <c r="L16">
-        <v>1.00005928181512</v>
+        <v>1.1590786</v>
       </c>
       <c r="M16">
-        <v>1.000073421591127</v>
+        <v>0.8357091</v>
       </c>
       <c r="N16">
-        <v>1.000073421591127</v>
+        <v>0.8357091</v>
       </c>
       <c r="O16">
-        <v>1.000048532398742</v>
+        <v>0.7926601433333333</v>
       </c>
       <c r="P16">
-        <v>0.9999921697443392</v>
+        <v>0.9090914</v>
       </c>
       <c r="Q16">
-        <v>0.9999921697443392</v>
+        <v>0.9090914</v>
       </c>
       <c r="R16">
-        <v>0.9999515438209453</v>
+        <v>0.94578255</v>
       </c>
       <c r="S16">
-        <v>0.9999515438209453</v>
+        <v>0.94578255</v>
       </c>
       <c r="T16">
-        <v>1.000027124849062</v>
+        <v>1.001513088333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000287600669074</v>
+        <v>0.99209241</v>
       </c>
       <c r="D17">
-        <v>0.9995825990579139</v>
+        <v>0.97663974</v>
       </c>
       <c r="E17">
-        <v>1.000003041765353</v>
+        <v>1.0320912</v>
       </c>
       <c r="F17">
-        <v>1.000287600669074</v>
+        <v>1.0051258</v>
       </c>
       <c r="G17">
-        <v>0.999956463521448</v>
+        <v>0.96941602</v>
       </c>
       <c r="H17">
-        <v>0.9998348549309285</v>
+        <v>0.9940289100000002</v>
       </c>
       <c r="I17">
-        <v>1.000086003325187</v>
+        <v>0.96941602</v>
       </c>
       <c r="J17">
-        <v>0.9995825990579139</v>
+        <v>1.0320912</v>
       </c>
       <c r="K17">
-        <v>1.000287600669074</v>
+        <v>1.0320912</v>
       </c>
       <c r="L17">
-        <v>1.000003041765353</v>
+        <v>0.9940289100000002</v>
       </c>
       <c r="M17">
-        <v>0.9997928204116334</v>
+        <v>0.981722465</v>
       </c>
       <c r="N17">
-        <v>0.9997928204116334</v>
+        <v>0.981722465</v>
       </c>
       <c r="O17">
-        <v>0.9998068319180651</v>
+        <v>0.9851791133333334</v>
       </c>
       <c r="P17">
-        <v>0.9999577471641136</v>
+        <v>0.9985120433333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999577471641136</v>
+        <v>0.9985120433333335</v>
       </c>
       <c r="R17">
-        <v>1.000040210540354</v>
+        <v>1.0069068325</v>
       </c>
       <c r="S17">
-        <v>1.000040210540354</v>
+        <v>1.0069068325</v>
       </c>
       <c r="T17">
-        <v>0.9999584272116507</v>
+        <v>0.9948990133333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9998675928230524</v>
+        <v>0.9572018608219174</v>
       </c>
       <c r="D18">
-        <v>0.9992045918900971</v>
+        <v>1.0426058</v>
       </c>
       <c r="E18">
-        <v>1.000377826225473</v>
+        <v>1.027141516438356</v>
       </c>
       <c r="F18">
-        <v>0.9998675928230524</v>
+        <v>1.019959674520548</v>
       </c>
       <c r="G18">
-        <v>1.001078700918749</v>
+        <v>0.9170974517808218</v>
       </c>
       <c r="H18">
-        <v>0.9994590124285608</v>
+        <v>1.017004191780822</v>
       </c>
       <c r="I18">
-        <v>1.000229068876947</v>
+        <v>0.9170974517808218</v>
       </c>
       <c r="J18">
-        <v>0.9992045918900971</v>
+        <v>1.027141516438356</v>
       </c>
       <c r="K18">
-        <v>0.9998675928230524</v>
+        <v>1.027141516438356</v>
       </c>
       <c r="L18">
-        <v>1.000377826225473</v>
+        <v>1.017004191780822</v>
       </c>
       <c r="M18">
-        <v>0.9997912090577853</v>
+        <v>0.967050821780822</v>
       </c>
       <c r="N18">
-        <v>0.9997912090577853</v>
+        <v>0.967050821780822</v>
       </c>
       <c r="O18">
-        <v>0.9996804768480438</v>
+        <v>0.9637678347945204</v>
       </c>
       <c r="P18">
-        <v>0.9998166703128742</v>
+        <v>0.9870810533333335</v>
       </c>
       <c r="Q18">
-        <v>0.9998166703128742</v>
+        <v>0.9870810533333335</v>
       </c>
       <c r="R18">
-        <v>0.9998294009404188</v>
+        <v>0.9970961691095892</v>
       </c>
       <c r="S18">
-        <v>0.9998294009404188</v>
+        <v>0.9970961691095892</v>
       </c>
       <c r="T18">
-        <v>1.000036132193813</v>
+        <v>0.9968350825570776</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9990349440450281</v>
+        <v>0.9506080052631579</v>
       </c>
       <c r="D19">
-        <v>0.9985061670276096</v>
+        <v>1.087502508947368</v>
       </c>
       <c r="E19">
-        <v>1.001097752555031</v>
+        <v>0.9989847457894734</v>
       </c>
       <c r="F19">
-        <v>0.9990349440450281</v>
+        <v>1.021067582105263</v>
       </c>
       <c r="G19">
-        <v>1.003220877231659</v>
+        <v>0.9244842489473686</v>
       </c>
       <c r="H19">
-        <v>0.9987566330094116</v>
+        <v>1.030155159473684</v>
       </c>
       <c r="I19">
-        <v>1.000496347300144</v>
+        <v>0.9244842489473686</v>
       </c>
       <c r="J19">
-        <v>0.9985061670276096</v>
+        <v>0.9989847457894734</v>
       </c>
       <c r="K19">
-        <v>0.9990349440450281</v>
+        <v>0.9989847457894734</v>
       </c>
       <c r="L19">
-        <v>1.001097752555031</v>
+        <v>1.030155159473684</v>
       </c>
       <c r="M19">
-        <v>0.9998019597913202</v>
+        <v>0.9773197042105264</v>
       </c>
       <c r="N19">
-        <v>0.9998019597913202</v>
+        <v>0.9773197042105264</v>
       </c>
       <c r="O19">
-        <v>0.999453517530684</v>
+        <v>0.9684158045614035</v>
       </c>
       <c r="P19">
-        <v>0.9995462878758895</v>
+        <v>0.9845413847368421</v>
       </c>
       <c r="Q19">
-        <v>0.9995462878758895</v>
+        <v>0.9845413847368421</v>
       </c>
       <c r="R19">
-        <v>0.9994184519181741</v>
+        <v>0.9881522249999999</v>
       </c>
       <c r="S19">
-        <v>0.9994184519181741</v>
+        <v>0.9881522249999999</v>
       </c>
       <c r="T19">
-        <v>1.000185453528147</v>
+        <v>1.002133708421053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.8881243999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.107467315789474</v>
+      </c>
+      <c r="E20">
+        <v>1.07554887368421</v>
+      </c>
+      <c r="F20">
+        <v>1.0520798</v>
+      </c>
+      <c r="G20">
+        <v>0.783314772631579</v>
+      </c>
+      <c r="H20">
+        <v>1.042421773684211</v>
+      </c>
+      <c r="I20">
+        <v>0.783314772631579</v>
+      </c>
+      <c r="J20">
+        <v>1.07554887368421</v>
+      </c>
+      <c r="K20">
+        <v>1.07554887368421</v>
+      </c>
+      <c r="L20">
+        <v>1.042421773684211</v>
+      </c>
+      <c r="M20">
+        <v>0.9128682731578948</v>
+      </c>
+      <c r="N20">
+        <v>0.9128682731578948</v>
+      </c>
+      <c r="O20">
+        <v>0.9046203154385966</v>
+      </c>
+      <c r="P20">
+        <v>0.96709514</v>
+      </c>
+      <c r="Q20">
+        <v>0.96709514</v>
+      </c>
+      <c r="R20">
+        <v>0.9942085734210526</v>
+      </c>
+      <c r="S20">
+        <v>0.9942085734210526</v>
+      </c>
+      <c r="T20">
+        <v>0.9914928226315788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.088980139865029</v>
+      </c>
+      <c r="D21">
+        <v>0.9135493954117723</v>
+      </c>
+      <c r="E21">
+        <v>0.9416945885620734</v>
+      </c>
+      <c r="F21">
+        <v>0.958411292827046</v>
+      </c>
+      <c r="G21">
+        <v>1.173352868256496</v>
+      </c>
+      <c r="H21">
+        <v>0.9652905934511633</v>
+      </c>
+      <c r="I21">
+        <v>1.173352868256496</v>
+      </c>
+      <c r="J21">
+        <v>0.9416945885620734</v>
+      </c>
+      <c r="K21">
+        <v>0.9416945885620734</v>
+      </c>
+      <c r="L21">
+        <v>0.9652905934511633</v>
+      </c>
+      <c r="M21">
+        <v>1.06932173085383</v>
+      </c>
+      <c r="N21">
+        <v>1.06932173085383</v>
+      </c>
+      <c r="O21">
+        <v>1.075874533857563</v>
+      </c>
+      <c r="P21">
+        <v>1.026779350089911</v>
+      </c>
+      <c r="Q21">
+        <v>1.026779350089911</v>
+      </c>
+      <c r="R21">
+        <v>1.005508159707952</v>
+      </c>
+      <c r="S21">
+        <v>1.005508159707952</v>
+      </c>
+      <c r="T21">
+        <v>1.006879813062263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.023475583699041</v>
+      </c>
+      <c r="D22">
+        <v>0.9627373446283207</v>
+      </c>
+      <c r="E22">
+        <v>0.9960997677407645</v>
+      </c>
+      <c r="F22">
+        <v>0.9899307933374332</v>
+      </c>
+      <c r="G22">
+        <v>1.037000495124408</v>
+      </c>
+      <c r="H22">
+        <v>0.9873921225213264</v>
+      </c>
+      <c r="I22">
+        <v>1.037000495124408</v>
+      </c>
+      <c r="J22">
+        <v>0.9960997677407645</v>
+      </c>
+      <c r="K22">
+        <v>0.9960997677407645</v>
+      </c>
+      <c r="L22">
+        <v>0.9873921225213264</v>
+      </c>
+      <c r="M22">
+        <v>1.012196308822867</v>
+      </c>
+      <c r="N22">
+        <v>1.012196308822867</v>
+      </c>
+      <c r="O22">
+        <v>1.015956067114925</v>
+      </c>
+      <c r="P22">
+        <v>1.006830795128833</v>
+      </c>
+      <c r="Q22">
+        <v>1.006830795128833</v>
+      </c>
+      <c r="R22">
+        <v>1.004148038281816</v>
+      </c>
+      <c r="S22">
+        <v>1.004148038281816</v>
+      </c>
+      <c r="T22">
+        <v>0.9994393511752157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.028305672081557</v>
+      </c>
+      <c r="D23">
+        <v>0.9642530786848523</v>
+      </c>
+      <c r="E23">
+        <v>0.9878490413674782</v>
+      </c>
+      <c r="F23">
+        <v>0.9873201833601503</v>
+      </c>
+      <c r="G23">
+        <v>1.049917634539595</v>
+      </c>
+      <c r="H23">
+        <v>0.9871025554848725</v>
+      </c>
+      <c r="I23">
+        <v>1.049917634539595</v>
+      </c>
+      <c r="J23">
+        <v>0.9878490413674782</v>
+      </c>
+      <c r="K23">
+        <v>0.9878490413674782</v>
+      </c>
+      <c r="L23">
+        <v>0.9871025554848725</v>
+      </c>
+      <c r="M23">
+        <v>1.018510095012234</v>
+      </c>
+      <c r="N23">
+        <v>1.018510095012234</v>
+      </c>
+      <c r="O23">
+        <v>1.021775287368675</v>
+      </c>
+      <c r="P23">
+        <v>1.008289743797315</v>
+      </c>
+      <c r="Q23">
+        <v>1.008289743797315</v>
+      </c>
+      <c r="R23">
+        <v>1.003179568189856</v>
+      </c>
+      <c r="S23">
+        <v>1.003179568189856</v>
+      </c>
+      <c r="T23">
+        <v>1.000791360919751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.007259281257592</v>
+      </c>
+      <c r="D24">
+        <v>0.9919708427466659</v>
+      </c>
+      <c r="E24">
+        <v>0.9966804973353023</v>
+      </c>
+      <c r="F24">
+        <v>0.9965180959577649</v>
+      </c>
+      <c r="G24">
+        <v>1.014606381594527</v>
+      </c>
+      <c r="H24">
+        <v>0.9964512627684543</v>
+      </c>
+      <c r="I24">
+        <v>1.014606381594527</v>
+      </c>
+      <c r="J24">
+        <v>0.9966804973353023</v>
+      </c>
+      <c r="K24">
+        <v>0.9966804973353023</v>
+      </c>
+      <c r="L24">
+        <v>0.9964512627684543</v>
+      </c>
+      <c r="M24">
+        <v>1.00552882218149</v>
+      </c>
+      <c r="N24">
+        <v>1.00552882218149</v>
+      </c>
+      <c r="O24">
+        <v>1.006105641873525</v>
+      </c>
+      <c r="P24">
+        <v>1.002579380566094</v>
+      </c>
+      <c r="Q24">
+        <v>1.002579380566094</v>
+      </c>
+      <c r="R24">
+        <v>1.001104659758396</v>
+      </c>
+      <c r="S24">
+        <v>1.001104659758396</v>
+      </c>
+      <c r="T24">
+        <v>1.000581060276718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9118421582359237</v>
+      </c>
+      <c r="D25">
+        <v>1.064305453278866</v>
+      </c>
+      <c r="E25">
+        <v>1.077562315709237</v>
+      </c>
+      <c r="F25">
+        <v>1.041894803115112</v>
+      </c>
+      <c r="G25">
+        <v>0.8198690278584374</v>
+      </c>
+      <c r="H25">
+        <v>1.027216815334454</v>
+      </c>
+      <c r="I25">
+        <v>0.8198690278584374</v>
+      </c>
+      <c r="J25">
+        <v>1.077562315709237</v>
+      </c>
+      <c r="K25">
+        <v>1.077562315709237</v>
+      </c>
+      <c r="L25">
+        <v>1.027216815334454</v>
+      </c>
+      <c r="M25">
+        <v>0.9235429215964455</v>
+      </c>
+      <c r="N25">
+        <v>0.9235429215964455</v>
+      </c>
+      <c r="O25">
+        <v>0.9196426671429382</v>
+      </c>
+      <c r="P25">
+        <v>0.9748827196340425</v>
+      </c>
+      <c r="Q25">
+        <v>0.9748827196340425</v>
+      </c>
+      <c r="R25">
+        <v>1.000552618652841</v>
+      </c>
+      <c r="S25">
+        <v>1.000552618652841</v>
+      </c>
+      <c r="T25">
+        <v>0.9904484289220049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9773730879435286</v>
+      </c>
+      <c r="D26">
+        <v>1.044901777202098</v>
+      </c>
+      <c r="E26">
+        <v>0.9944188851973861</v>
+      </c>
+      <c r="F26">
+        <v>1.009642719536478</v>
+      </c>
+      <c r="G26">
+        <v>0.966261683442854</v>
+      </c>
+      <c r="H26">
+        <v>1.015907674474205</v>
+      </c>
+      <c r="I26">
+        <v>0.966261683442854</v>
+      </c>
+      <c r="J26">
+        <v>0.9944188851973861</v>
+      </c>
+      <c r="K26">
+        <v>0.9944188851973861</v>
+      </c>
+      <c r="L26">
+        <v>1.015907674474205</v>
+      </c>
+      <c r="M26">
+        <v>0.9910846789585297</v>
+      </c>
+      <c r="N26">
+        <v>0.9910846789585297</v>
+      </c>
+      <c r="O26">
+        <v>0.9865141486201959</v>
+      </c>
+      <c r="P26">
+        <v>0.9921960810381485</v>
+      </c>
+      <c r="Q26">
+        <v>0.9921960810381485</v>
+      </c>
+      <c r="R26">
+        <v>0.9927517820779579</v>
+      </c>
+      <c r="S26">
+        <v>0.9927517820779579</v>
+      </c>
+      <c r="T26">
+        <v>1.001417637966092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9933000054647426</v>
+      </c>
+      <c r="D27">
+        <v>1.007657445091681</v>
+      </c>
+      <c r="E27">
+        <v>1.003933887965716</v>
+      </c>
+      <c r="F27">
+        <v>1.002956583503646</v>
+      </c>
+      <c r="G27">
+        <v>0.988365905385303</v>
+      </c>
+      <c r="H27">
+        <v>1.002554397092649</v>
+      </c>
+      <c r="I27">
+        <v>0.988365905385303</v>
+      </c>
+      <c r="J27">
+        <v>1.003933887965716</v>
+      </c>
+      <c r="K27">
+        <v>1.003933887965716</v>
+      </c>
+      <c r="L27">
+        <v>1.002554397092649</v>
+      </c>
+      <c r="M27">
+        <v>0.9954601512389762</v>
+      </c>
+      <c r="N27">
+        <v>0.9954601512389762</v>
+      </c>
+      <c r="O27">
+        <v>0.994740102647565</v>
+      </c>
+      <c r="P27">
+        <v>0.9982847301478895</v>
+      </c>
+      <c r="Q27">
+        <v>0.9982847301478895</v>
+      </c>
+      <c r="R27">
+        <v>0.9996970196023461</v>
+      </c>
+      <c r="S27">
+        <v>0.9996970196023461</v>
+      </c>
+      <c r="T27">
+        <v>0.9997947040839562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9884326094977288</v>
+      </c>
+      <c r="D28">
+        <v>1.01090446792123</v>
+      </c>
+      <c r="E28">
+        <v>1.007911815810033</v>
+      </c>
+      <c r="F28">
+        <v>1.005412259469697</v>
+      </c>
+      <c r="G28">
+        <v>0.9773685672452588</v>
+      </c>
+      <c r="H28">
+        <v>1.004383647935712</v>
+      </c>
+      <c r="I28">
+        <v>0.9773685672452588</v>
+      </c>
+      <c r="J28">
+        <v>1.007911815810033</v>
+      </c>
+      <c r="K28">
+        <v>1.007911815810033</v>
+      </c>
+      <c r="L28">
+        <v>1.004383647935712</v>
+      </c>
+      <c r="M28">
+        <v>0.9908761075904853</v>
+      </c>
+      <c r="N28">
+        <v>0.9908761075904853</v>
+      </c>
+      <c r="O28">
+        <v>0.9900616082262331</v>
+      </c>
+      <c r="P28">
+        <v>0.9965546769970013</v>
+      </c>
+      <c r="Q28">
+        <v>0.9965546769970013</v>
+      </c>
+      <c r="R28">
+        <v>0.9993939617002592</v>
+      </c>
+      <c r="S28">
+        <v>0.9993939617002592</v>
+      </c>
+      <c r="T28">
+        <v>0.99906889464661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.009199475722797</v>
+      </c>
+      <c r="D29">
+        <v>0.9770221839911067</v>
+      </c>
+      <c r="E29">
+        <v>1.006707556628006</v>
+      </c>
+      <c r="F29">
+        <v>0.9962188036253723</v>
+      </c>
+      <c r="G29">
+        <v>1.011957899143712</v>
+      </c>
+      <c r="H29">
+        <v>0.9919024395527848</v>
+      </c>
+      <c r="I29">
+        <v>1.011957899143712</v>
+      </c>
+      <c r="J29">
+        <v>1.006707556628006</v>
+      </c>
+      <c r="K29">
+        <v>1.006707556628006</v>
+      </c>
+      <c r="L29">
+        <v>0.9919024395527848</v>
+      </c>
+      <c r="M29">
+        <v>1.001930169348249</v>
+      </c>
+      <c r="N29">
+        <v>1.001930169348249</v>
+      </c>
+      <c r="O29">
+        <v>1.004353271473098</v>
+      </c>
+      <c r="P29">
+        <v>1.003522631774834</v>
+      </c>
+      <c r="Q29">
+        <v>1.003522631774834</v>
+      </c>
+      <c r="R29">
+        <v>1.004318862988127</v>
+      </c>
+      <c r="S29">
+        <v>1.004318862988127</v>
+      </c>
+      <c r="T29">
+        <v>0.9988347264439632</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha3F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9601021508036958</v>
+        <v>0.9844814532631846</v>
       </c>
       <c r="D4">
-        <v>1.056948775840839</v>
+        <v>1.021681091934135</v>
       </c>
       <c r="E4">
-        <v>1.010764570222414</v>
+        <v>1.004447507156223</v>
       </c>
       <c r="F4">
-        <v>1.017723192629268</v>
+        <v>1.006948378287868</v>
       </c>
       <c r="G4">
-        <v>0.9317743282378965</v>
+        <v>0.9730003660953098</v>
       </c>
       <c r="H4">
-        <v>1.020586823189489</v>
+        <v>1.007977542516593</v>
       </c>
       <c r="I4">
-        <v>0.9317743282378965</v>
+        <v>0.9730003660953098</v>
       </c>
       <c r="J4">
-        <v>1.010764570222414</v>
+        <v>1.004447507156223</v>
       </c>
       <c r="K4">
-        <v>1.010764570222414</v>
+        <v>1.004447507156223</v>
       </c>
       <c r="L4">
-        <v>1.020586823189489</v>
+        <v>1.007977542516593</v>
       </c>
       <c r="M4">
-        <v>0.976180575713693</v>
+        <v>0.9904889543059516</v>
       </c>
       <c r="N4">
-        <v>0.976180575713693</v>
+        <v>0.9904889543059516</v>
       </c>
       <c r="O4">
-        <v>0.9708211007436939</v>
+        <v>0.9884864539583625</v>
       </c>
       <c r="P4">
-        <v>0.9877085738832667</v>
+        <v>0.995141805256042</v>
       </c>
       <c r="Q4">
-        <v>0.9877085738832667</v>
+        <v>0.995141805256042</v>
       </c>
       <c r="R4">
-        <v>0.9934725729680536</v>
+        <v>0.9974682307310871</v>
       </c>
       <c r="S4">
-        <v>0.9934725729680536</v>
+        <v>0.9974682307310871</v>
       </c>
       <c r="T4">
-        <v>0.9996499734872671</v>
+        <v>0.999756056542219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9799617311383295</v>
+        <v>0.8880291884488235</v>
       </c>
       <c r="D5">
-        <v>1.02672825871758</v>
+        <v>1.104816805048931</v>
       </c>
       <c r="E5">
-        <v>1.006849587074931</v>
+        <v>1.078078843091477</v>
       </c>
       <c r="F5">
-        <v>1.00902859835735</v>
+        <v>1.052230291464663</v>
       </c>
       <c r="G5">
-        <v>0.96453010345101</v>
+        <v>0.7819310930928848</v>
       </c>
       <c r="H5">
-        <v>1.009925310677235</v>
+        <v>1.041593057705963</v>
       </c>
       <c r="I5">
-        <v>0.96453010345101</v>
+        <v>0.7819310930928848</v>
       </c>
       <c r="J5">
-        <v>1.006849587074931</v>
+        <v>1.078078843091477</v>
       </c>
       <c r="K5">
-        <v>1.006849587074931</v>
+        <v>1.078078843091477</v>
       </c>
       <c r="L5">
-        <v>1.009925310677235</v>
+        <v>1.041593057705963</v>
       </c>
       <c r="M5">
-        <v>0.9872277070641227</v>
+        <v>0.9117620753994238</v>
       </c>
       <c r="N5">
-        <v>0.9872277070641227</v>
+        <v>0.9117620753994238</v>
       </c>
       <c r="O5">
-        <v>0.9848057150888584</v>
+        <v>0.9038511130825571</v>
       </c>
       <c r="P5">
-        <v>0.993768333734392</v>
+        <v>0.9672009979634414</v>
       </c>
       <c r="Q5">
-        <v>0.993768333734392</v>
+        <v>0.9672009979634416</v>
       </c>
       <c r="R5">
-        <v>0.9970386470695267</v>
+        <v>0.9949204592454504</v>
       </c>
       <c r="S5">
-        <v>0.9970386470695267</v>
+        <v>0.9949204592454504</v>
       </c>
       <c r="T5">
-        <v>0.999503931569406</v>
+        <v>0.9911132131421238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9372281913256516</v>
+        <v>0.9601021508036958</v>
       </c>
       <c r="D6">
-        <v>1.09020609496449</v>
+        <v>1.056948775840839</v>
       </c>
       <c r="E6">
-        <v>1.015524702515173</v>
+        <v>1.010764570222414</v>
       </c>
       <c r="F6">
-        <v>1.028056563293067</v>
+        <v>1.017723192629268</v>
       </c>
       <c r="G6">
-        <v>0.8915485915858932</v>
+        <v>0.9317743282378965</v>
       </c>
       <c r="H6">
-        <v>1.033213706819628</v>
+        <v>1.020586823189489</v>
       </c>
       <c r="I6">
-        <v>0.8915485915858932</v>
+        <v>0.9317743282378965</v>
       </c>
       <c r="J6">
-        <v>1.015524702515173</v>
+        <v>1.010764570222414</v>
       </c>
       <c r="K6">
-        <v>1.015524702515173</v>
+        <v>1.010764570222414</v>
       </c>
       <c r="L6">
-        <v>1.033213706819628</v>
+        <v>1.020586823189489</v>
       </c>
       <c r="M6">
-        <v>0.9623811492027606</v>
+        <v>0.976180575713693</v>
       </c>
       <c r="N6">
-        <v>0.9623811492027606</v>
+        <v>0.976180575713693</v>
       </c>
       <c r="O6">
-        <v>0.953996829910391</v>
+        <v>0.9708211007436939</v>
       </c>
       <c r="P6">
-        <v>0.9800956669735648</v>
+        <v>0.9877085738832667</v>
       </c>
       <c r="Q6">
-        <v>0.9800956669735648</v>
+        <v>0.9877085738832667</v>
       </c>
       <c r="R6">
-        <v>0.9889529258589669</v>
+        <v>0.9934725729680536</v>
       </c>
       <c r="S6">
-        <v>0.9889529258589669</v>
+        <v>0.9934725729680536</v>
       </c>
       <c r="T6">
-        <v>0.9992963084173171</v>
+        <v>0.9996499734872671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.997618587145663</v>
+        <v>0.9799617311383295</v>
       </c>
       <c r="D7">
-        <v>1.002295637934421</v>
+        <v>1.02672825871758</v>
       </c>
       <c r="E7">
-        <v>1.001583684582176</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="F7">
-        <v>1.001112174576638</v>
+        <v>1.00902859835735</v>
       </c>
       <c r="G7">
-        <v>0.9953636896666166</v>
+        <v>0.96453010345101</v>
       </c>
       <c r="H7">
-        <v>1.000918138865522</v>
+        <v>1.009925310677235</v>
       </c>
       <c r="I7">
-        <v>0.9953636896666166</v>
+        <v>0.96453010345101</v>
       </c>
       <c r="J7">
-        <v>1.001583684582176</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="K7">
-        <v>1.001583684582176</v>
+        <v>1.006849587074931</v>
       </c>
       <c r="L7">
-        <v>1.000918138865522</v>
+        <v>1.009925310677235</v>
       </c>
       <c r="M7">
-        <v>0.9981409142660691</v>
+        <v>0.9872277070641227</v>
       </c>
       <c r="N7">
-        <v>0.9981409142660691</v>
+        <v>0.9872277070641227</v>
       </c>
       <c r="O7">
-        <v>0.9979668052259337</v>
+        <v>0.9848057150888584</v>
       </c>
       <c r="P7">
-        <v>0.9992885043714379</v>
+        <v>0.993768333734392</v>
       </c>
       <c r="Q7">
-        <v>0.9992885043714379</v>
+        <v>0.993768333734392</v>
       </c>
       <c r="R7">
-        <v>0.9998622994241224</v>
+        <v>0.9970386470695267</v>
       </c>
       <c r="S7">
-        <v>0.9998622994241224</v>
+        <v>0.9970386470695267</v>
       </c>
       <c r="T7">
-        <v>0.9998153187951727</v>
+        <v>0.999503931569406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998348549309285</v>
+        <v>0.9372281913256516</v>
       </c>
       <c r="D8">
-        <v>0.999956463521448</v>
+        <v>1.09020609496449</v>
       </c>
       <c r="E8">
-        <v>1.000287600669074</v>
+        <v>1.015524702515173</v>
       </c>
       <c r="F8">
-        <v>1.000086003325187</v>
+        <v>1.028056563293067</v>
       </c>
       <c r="G8">
-        <v>0.9995825990579139</v>
+        <v>0.8915485915858932</v>
       </c>
       <c r="H8">
-        <v>1.000003041765353</v>
+        <v>1.033213706819628</v>
       </c>
       <c r="I8">
-        <v>0.9995825990579139</v>
+        <v>0.8915485915858932</v>
       </c>
       <c r="J8">
-        <v>1.000287600669074</v>
+        <v>1.015524702515173</v>
       </c>
       <c r="K8">
-        <v>1.000287600669074</v>
+        <v>1.015524702515173</v>
       </c>
       <c r="L8">
-        <v>1.000003041765353</v>
+        <v>1.033213706819628</v>
       </c>
       <c r="M8">
-        <v>0.9997928204116334</v>
+        <v>0.9623811492027606</v>
       </c>
       <c r="N8">
-        <v>0.9997928204116334</v>
+        <v>0.9623811492027606</v>
       </c>
       <c r="O8">
-        <v>0.9998068319180651</v>
+        <v>0.953996829910391</v>
       </c>
       <c r="P8">
-        <v>0.9999577471641135</v>
+        <v>0.9800956669735648</v>
       </c>
       <c r="Q8">
-        <v>0.9999577471641135</v>
+        <v>0.9800956669735648</v>
       </c>
       <c r="R8">
-        <v>1.000040210540353</v>
+        <v>0.9889529258589669</v>
       </c>
       <c r="S8">
-        <v>1.000040210540353</v>
+        <v>0.9889529258589669</v>
       </c>
       <c r="T8">
-        <v>0.9999584272116507</v>
+        <v>0.9992963084173171</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9965033106417149</v>
+        <v>0.997618587145663</v>
       </c>
       <c r="D9">
-        <v>1.00356694026398</v>
+        <v>1.002295637934421</v>
       </c>
       <c r="E9">
-        <v>1.002138434282135</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="F9">
-        <v>1.001627817092831</v>
+        <v>1.001112174576638</v>
       </c>
       <c r="G9">
-        <v>0.993261476598603</v>
+        <v>0.9953636896666166</v>
       </c>
       <c r="H9">
-        <v>1.001417687597225</v>
+        <v>1.000918138865522</v>
       </c>
       <c r="I9">
-        <v>0.993261476598603</v>
+        <v>0.9953636896666166</v>
       </c>
       <c r="J9">
-        <v>1.002138434282135</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="K9">
-        <v>1.002138434282135</v>
+        <v>1.001583684582176</v>
       </c>
       <c r="L9">
-        <v>1.001417687597225</v>
+        <v>1.000918138865522</v>
       </c>
       <c r="M9">
-        <v>0.9973395820979141</v>
+        <v>0.9981409142660691</v>
       </c>
       <c r="N9">
-        <v>0.9973395820979141</v>
+        <v>0.9981409142660691</v>
       </c>
       <c r="O9">
-        <v>0.9970608249458476</v>
+        <v>0.9979668052259337</v>
       </c>
       <c r="P9">
-        <v>0.9989391994926544</v>
+        <v>0.9992885043714379</v>
       </c>
       <c r="Q9">
-        <v>0.9989391994926544</v>
+        <v>0.9992885043714379</v>
       </c>
       <c r="R9">
-        <v>0.9997390081900246</v>
+        <v>0.9998622994241224</v>
       </c>
       <c r="S9">
-        <v>0.9997390081900246</v>
+        <v>0.9998622994241224</v>
       </c>
       <c r="T9">
-        <v>0.9997526110794149</v>
+        <v>0.9998153187951727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.936307856689966</v>
+        <v>0.9998348549309285</v>
       </c>
       <c r="D10">
-        <v>1.091755390290611</v>
+        <v>0.999956463521448</v>
       </c>
       <c r="E10">
-        <v>1.015518864125654</v>
+        <v>1.000287600669074</v>
       </c>
       <c r="F10">
-        <v>1.028465840561865</v>
+        <v>1.000086003325187</v>
       </c>
       <c r="G10">
-        <v>0.8900105973830438</v>
+        <v>0.9995825990579139</v>
       </c>
       <c r="H10">
-        <v>1.033793813685377</v>
+        <v>1.000003041765353</v>
       </c>
       <c r="I10">
-        <v>0.8900105973830438</v>
+        <v>0.9995825990579139</v>
       </c>
       <c r="J10">
-        <v>1.015518864125654</v>
+        <v>1.000287600669074</v>
       </c>
       <c r="K10">
-        <v>1.015518864125654</v>
+        <v>1.000287600669074</v>
       </c>
       <c r="L10">
-        <v>1.033793813685377</v>
+        <v>1.000003041765353</v>
       </c>
       <c r="M10">
-        <v>0.9619022055342101</v>
+        <v>0.9997928204116334</v>
       </c>
       <c r="N10">
-        <v>0.9619022055342101</v>
+        <v>0.9997928204116334</v>
       </c>
       <c r="O10">
-        <v>0.9533707559194621</v>
+        <v>0.9998068319180651</v>
       </c>
       <c r="P10">
-        <v>0.9797744250646915</v>
+        <v>0.9999577471641135</v>
       </c>
       <c r="Q10">
-        <v>0.9797744250646915</v>
+        <v>0.9999577471641135</v>
       </c>
       <c r="R10">
-        <v>0.9887105348299321</v>
+        <v>1.000040210540353</v>
       </c>
       <c r="S10">
-        <v>0.9887105348299321</v>
+        <v>1.000040210540353</v>
       </c>
       <c r="T10">
-        <v>0.9993087271227528</v>
+        <v>0.9999584272116507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9600724058184479</v>
+        <v>0.9965033106417149</v>
       </c>
       <c r="D11">
-        <v>1.055889289151452</v>
+        <v>1.00356694026398</v>
       </c>
       <c r="E11">
-        <v>1.011701415740134</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="F11">
-        <v>1.017793143220692</v>
+        <v>1.001627817092831</v>
       </c>
       <c r="G11">
-        <v>0.931142647509746</v>
+        <v>0.993261476598603</v>
       </c>
       <c r="H11">
-        <v>1.020300026424709</v>
+        <v>1.001417687597225</v>
       </c>
       <c r="I11">
-        <v>0.931142647509746</v>
+        <v>0.993261476598603</v>
       </c>
       <c r="J11">
-        <v>1.011701415740134</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="K11">
-        <v>1.011701415740134</v>
+        <v>1.002138434282135</v>
       </c>
       <c r="L11">
-        <v>1.020300026424709</v>
+        <v>1.001417687597225</v>
       </c>
       <c r="M11">
-        <v>0.9757213369672273</v>
+        <v>0.9973395820979141</v>
       </c>
       <c r="N11">
-        <v>0.9757213369672273</v>
+        <v>0.9973395820979141</v>
       </c>
       <c r="O11">
-        <v>0.9705050265843008</v>
+        <v>0.9970608249458476</v>
       </c>
       <c r="P11">
-        <v>0.9877146965581961</v>
+        <v>0.9989391994926544</v>
       </c>
       <c r="Q11">
-        <v>0.9877146965581961</v>
+        <v>0.9989391994926544</v>
       </c>
       <c r="R11">
-        <v>0.9937113763536807</v>
+        <v>0.9997390081900246</v>
       </c>
       <c r="S11">
-        <v>0.9937113763536807</v>
+        <v>0.9997390081900246</v>
       </c>
       <c r="T11">
-        <v>0.9994831546441968</v>
+        <v>0.9997526110794149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9796202339789472</v>
+        <v>0.936307856689966</v>
       </c>
       <c r="D12">
-        <v>1.028777884189473</v>
+        <v>1.091755390290611</v>
       </c>
       <c r="E12">
-        <v>1.005496108800002</v>
+        <v>1.015518864125654</v>
       </c>
       <c r="F12">
-        <v>1.009129066105263</v>
+        <v>1.028465840561865</v>
       </c>
       <c r="G12">
-        <v>0.9645643578000017</v>
+        <v>0.8900105973830438</v>
       </c>
       <c r="H12">
-        <v>1.010624109684213</v>
+        <v>1.033793813685377</v>
       </c>
       <c r="I12">
-        <v>0.9645643578000017</v>
+        <v>0.8900105973830438</v>
       </c>
       <c r="J12">
-        <v>1.005496108800002</v>
+        <v>1.015518864125654</v>
       </c>
       <c r="K12">
-        <v>1.005496108800002</v>
+        <v>1.015518864125654</v>
       </c>
       <c r="L12">
-        <v>1.010624109684213</v>
+        <v>1.033793813685377</v>
       </c>
       <c r="M12">
-        <v>0.9875942337421073</v>
+        <v>0.9619022055342101</v>
       </c>
       <c r="N12">
-        <v>0.9875942337421073</v>
+        <v>0.9619022055342101</v>
       </c>
       <c r="O12">
-        <v>0.9849362338210539</v>
+        <v>0.9533707559194621</v>
       </c>
       <c r="P12">
-        <v>0.9935615254280722</v>
+        <v>0.9797744250646915</v>
       </c>
       <c r="Q12">
-        <v>0.9935615254280722</v>
+        <v>0.9797744250646915</v>
       </c>
       <c r="R12">
-        <v>0.9965451712710546</v>
+        <v>0.9887105348299321</v>
       </c>
       <c r="S12">
-        <v>0.9965451712710546</v>
+        <v>0.9887105348299321</v>
       </c>
       <c r="T12">
-        <v>0.9997019600929834</v>
+        <v>0.9993087271227528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.01263856843759</v>
+        <v>0.9600724058184479</v>
       </c>
       <c r="D13">
-        <v>0.9844568044135794</v>
+        <v>1.055889289151452</v>
       </c>
       <c r="E13">
-        <v>0.9943796980217279</v>
+        <v>1.011701415740134</v>
       </c>
       <c r="F13">
-        <v>0.9942812371114301</v>
+        <v>1.017793143220692</v>
       </c>
       <c r="G13">
-        <v>1.022759269924831</v>
+        <v>0.931142647509746</v>
       </c>
       <c r="H13">
-        <v>0.994240718211117</v>
+        <v>1.020300026424709</v>
       </c>
       <c r="I13">
-        <v>1.022759269924831</v>
+        <v>0.931142647509746</v>
       </c>
       <c r="J13">
-        <v>0.9943796980217279</v>
+        <v>1.011701415740134</v>
       </c>
       <c r="K13">
-        <v>0.9943796980217279</v>
+        <v>1.011701415740134</v>
       </c>
       <c r="L13">
-        <v>0.994240718211117</v>
+        <v>1.020300026424709</v>
       </c>
       <c r="M13">
-        <v>1.008499994067974</v>
+        <v>0.9757213369672273</v>
       </c>
       <c r="N13">
-        <v>1.008499994067974</v>
+        <v>0.9757213369672273</v>
       </c>
       <c r="O13">
-        <v>1.009879518857846</v>
+        <v>0.9705050265843008</v>
       </c>
       <c r="P13">
-        <v>1.003793228719225</v>
+        <v>0.9877146965581961</v>
       </c>
       <c r="Q13">
-        <v>1.003793228719225</v>
+        <v>0.9877146965581961</v>
       </c>
       <c r="R13">
-        <v>1.001439846044851</v>
+        <v>0.9937113763536807</v>
       </c>
       <c r="S13">
-        <v>1.001439846044851</v>
+        <v>0.9937113763536807</v>
       </c>
       <c r="T13">
-        <v>1.000459382686712</v>
+        <v>0.9994831546441968</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.889978380000001</v>
+        <v>0.9796202339789472</v>
       </c>
       <c r="D14">
-        <v>1.159078600000001</v>
+        <v>1.028777884189473</v>
       </c>
       <c r="E14">
-        <v>1.026284799999999</v>
+        <v>1.005496108800002</v>
       </c>
       <c r="F14">
-        <v>1.0491494</v>
+        <v>1.009129066105263</v>
       </c>
       <c r="G14">
-        <v>0.8102580500000012</v>
+        <v>0.9645643578000017</v>
       </c>
       <c r="H14">
-        <v>1.0585587</v>
+        <v>1.010624109684213</v>
       </c>
       <c r="I14">
-        <v>0.8102580500000012</v>
+        <v>0.9645643578000017</v>
       </c>
       <c r="J14">
-        <v>1.026284799999999</v>
+        <v>1.005496108800002</v>
       </c>
       <c r="K14">
-        <v>1.026284799999999</v>
+        <v>1.005496108800002</v>
       </c>
       <c r="L14">
-        <v>1.0585587</v>
+        <v>1.010624109684213</v>
       </c>
       <c r="M14">
-        <v>0.9344083750000007</v>
+        <v>0.9875942337421073</v>
       </c>
       <c r="N14">
-        <v>0.9344083750000007</v>
+        <v>0.9875942337421073</v>
       </c>
       <c r="O14">
-        <v>0.9195983766666674</v>
+        <v>0.9849362338210539</v>
       </c>
       <c r="P14">
-        <v>0.9650338500000002</v>
+        <v>0.9935615254280722</v>
       </c>
       <c r="Q14">
-        <v>0.9650338500000002</v>
+        <v>0.9935615254280722</v>
       </c>
       <c r="R14">
-        <v>0.9803465874999999</v>
+        <v>0.9965451712710546</v>
       </c>
       <c r="S14">
-        <v>0.9803465874999999</v>
+        <v>0.9965451712710546</v>
       </c>
       <c r="T14">
-        <v>0.9988846550000003</v>
+        <v>0.9997019600929834</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.88627042</v>
+        <v>1.01263856843759</v>
       </c>
       <c r="D15">
-        <v>1.055856</v>
+        <v>0.9844568044135794</v>
       </c>
       <c r="E15">
-        <v>1.1248129</v>
+        <v>0.9943796980217279</v>
       </c>
       <c r="F15">
-        <v>1.0550102</v>
+        <v>0.9942812371114301</v>
       </c>
       <c r="G15">
-        <v>0.7563714999999999</v>
+        <v>1.022759269924831</v>
       </c>
       <c r="H15">
-        <v>1.0262848</v>
+        <v>0.994240718211117</v>
       </c>
       <c r="I15">
-        <v>0.7563714999999999</v>
+        <v>1.022759269924831</v>
       </c>
       <c r="J15">
-        <v>1.1248129</v>
+        <v>0.9943796980217279</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>0.9943796980217279</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>0.994240718211117</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>1.008499994067974</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>1.008499994067974</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>1.009879518857846</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>1.003793228719225</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>1.003793228719225</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>1.001439846044851</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>1.001439846044851</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>1.000459382686712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.70656223</v>
+        <v>0.889978380000001</v>
       </c>
       <c r="D16">
-        <v>1.4462575</v>
+        <v>1.159078600000001</v>
       </c>
       <c r="E16">
-        <v>1.055856</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="F16">
-        <v>1.1289846</v>
+        <v>1.0491494</v>
       </c>
       <c r="G16">
-        <v>0.5123396</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="H16">
-        <v>1.1590786</v>
+        <v>1.0585587</v>
       </c>
       <c r="I16">
-        <v>0.5123396</v>
+        <v>0.8102580500000012</v>
       </c>
       <c r="J16">
-        <v>1.055856</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="K16">
-        <v>1.055856</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="L16">
-        <v>1.1590786</v>
+        <v>1.0585587</v>
       </c>
       <c r="M16">
-        <v>0.8357091</v>
+        <v>0.9344083750000007</v>
       </c>
       <c r="N16">
-        <v>0.8357091</v>
+        <v>0.9344083750000007</v>
       </c>
       <c r="O16">
-        <v>0.7926601433333333</v>
+        <v>0.9195983766666674</v>
       </c>
       <c r="P16">
-        <v>0.9090914</v>
+        <v>0.9650338500000002</v>
       </c>
       <c r="Q16">
-        <v>0.9090914</v>
+        <v>0.9650338500000002</v>
       </c>
       <c r="R16">
-        <v>0.94578255</v>
+        <v>0.9803465874999999</v>
       </c>
       <c r="S16">
-        <v>0.94578255</v>
+        <v>0.9803465874999999</v>
       </c>
       <c r="T16">
-        <v>1.001513088333333</v>
+        <v>0.9988846550000003</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99209241</v>
+        <v>0.88627042</v>
       </c>
       <c r="D17">
-        <v>0.97663974</v>
+        <v>1.055856</v>
       </c>
       <c r="E17">
-        <v>1.0320912</v>
+        <v>1.1248129</v>
       </c>
       <c r="F17">
-        <v>1.0051258</v>
+        <v>1.0550102</v>
       </c>
       <c r="G17">
-        <v>0.96941602</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H17">
-        <v>0.9940289100000002</v>
+        <v>1.0262848</v>
       </c>
       <c r="I17">
-        <v>0.96941602</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="J17">
-        <v>1.0320912</v>
+        <v>1.1248129</v>
       </c>
       <c r="K17">
-        <v>1.0320912</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>0.9940289100000002</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>0.981722465</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>0.981722465</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>0.9851791133333334</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>0.9985120433333333</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>0.9985120433333335</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>1.0069068325</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>1.0069068325</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>0.9948990133333334</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9572018608219174</v>
+        <v>0.70656223</v>
       </c>
       <c r="D18">
-        <v>1.0426058</v>
+        <v>1.4462575</v>
       </c>
       <c r="E18">
-        <v>1.027141516438356</v>
+        <v>1.055856</v>
       </c>
       <c r="F18">
-        <v>1.019959674520548</v>
+        <v>1.1289846</v>
       </c>
       <c r="G18">
-        <v>0.9170974517808218</v>
+        <v>0.5123396</v>
       </c>
       <c r="H18">
-        <v>1.017004191780822</v>
+        <v>1.1590786</v>
       </c>
       <c r="I18">
-        <v>0.9170974517808218</v>
+        <v>0.5123396</v>
       </c>
       <c r="J18">
-        <v>1.027141516438356</v>
+        <v>1.055856</v>
       </c>
       <c r="K18">
-        <v>1.027141516438356</v>
+        <v>1.055856</v>
       </c>
       <c r="L18">
-        <v>1.017004191780822</v>
+        <v>1.1590786</v>
       </c>
       <c r="M18">
-        <v>0.967050821780822</v>
+        <v>0.8357091</v>
       </c>
       <c r="N18">
-        <v>0.967050821780822</v>
+        <v>0.8357091</v>
       </c>
       <c r="O18">
-        <v>0.9637678347945204</v>
+        <v>0.7926601433333333</v>
       </c>
       <c r="P18">
-        <v>0.9870810533333335</v>
+        <v>0.9090914</v>
       </c>
       <c r="Q18">
-        <v>0.9870810533333335</v>
+        <v>0.9090914</v>
       </c>
       <c r="R18">
-        <v>0.9970961691095892</v>
+        <v>0.94578255</v>
       </c>
       <c r="S18">
-        <v>0.9970961691095892</v>
+        <v>0.94578255</v>
       </c>
       <c r="T18">
-        <v>0.9968350825570776</v>
+        <v>1.001513088333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9506080052631579</v>
+        <v>0.99209241</v>
       </c>
       <c r="D19">
-        <v>1.087502508947368</v>
+        <v>0.97663974</v>
       </c>
       <c r="E19">
-        <v>0.9989847457894734</v>
+        <v>1.0320912</v>
       </c>
       <c r="F19">
-        <v>1.021067582105263</v>
+        <v>1.0051258</v>
       </c>
       <c r="G19">
-        <v>0.9244842489473686</v>
+        <v>0.96941602</v>
       </c>
       <c r="H19">
-        <v>1.030155159473684</v>
+        <v>0.9940289100000002</v>
       </c>
       <c r="I19">
-        <v>0.9244842489473686</v>
+        <v>0.96941602</v>
       </c>
       <c r="J19">
-        <v>0.9989847457894734</v>
+        <v>1.0320912</v>
       </c>
       <c r="K19">
-        <v>0.9989847457894734</v>
+        <v>1.0320912</v>
       </c>
       <c r="L19">
-        <v>1.030155159473684</v>
+        <v>0.9940289100000002</v>
       </c>
       <c r="M19">
-        <v>0.9773197042105264</v>
+        <v>0.981722465</v>
       </c>
       <c r="N19">
-        <v>0.9773197042105264</v>
+        <v>0.981722465</v>
       </c>
       <c r="O19">
-        <v>0.9684158045614035</v>
+        <v>0.9851791133333334</v>
       </c>
       <c r="P19">
-        <v>0.9845413847368421</v>
+        <v>0.9985120433333333</v>
       </c>
       <c r="Q19">
-        <v>0.9845413847368421</v>
+        <v>0.9985120433333335</v>
       </c>
       <c r="R19">
-        <v>0.9881522249999999</v>
+        <v>1.0069068325</v>
       </c>
       <c r="S19">
-        <v>0.9881522249999999</v>
+        <v>1.0069068325</v>
       </c>
       <c r="T19">
-        <v>1.002133708421053</v>
+        <v>0.9948990133333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8881243999999999</v>
+        <v>0.9572018608219174</v>
       </c>
       <c r="D20">
-        <v>1.107467315789474</v>
+        <v>1.0426058</v>
       </c>
       <c r="E20">
-        <v>1.07554887368421</v>
+        <v>1.027141516438356</v>
       </c>
       <c r="F20">
-        <v>1.0520798</v>
+        <v>1.019959674520548</v>
       </c>
       <c r="G20">
-        <v>0.783314772631579</v>
+        <v>0.9170974517808218</v>
       </c>
       <c r="H20">
-        <v>1.042421773684211</v>
+        <v>1.017004191780822</v>
       </c>
       <c r="I20">
-        <v>0.783314772631579</v>
+        <v>0.9170974517808218</v>
       </c>
       <c r="J20">
-        <v>1.07554887368421</v>
+        <v>1.027141516438356</v>
       </c>
       <c r="K20">
-        <v>1.07554887368421</v>
+        <v>1.027141516438356</v>
       </c>
       <c r="L20">
-        <v>1.042421773684211</v>
+        <v>1.017004191780822</v>
       </c>
       <c r="M20">
-        <v>0.9128682731578948</v>
+        <v>0.967050821780822</v>
       </c>
       <c r="N20">
-        <v>0.9128682731578948</v>
+        <v>0.967050821780822</v>
       </c>
       <c r="O20">
-        <v>0.9046203154385966</v>
+        <v>0.9637678347945204</v>
       </c>
       <c r="P20">
-        <v>0.96709514</v>
+        <v>0.9870810533333335</v>
       </c>
       <c r="Q20">
-        <v>0.96709514</v>
+        <v>0.9870810533333335</v>
       </c>
       <c r="R20">
-        <v>0.9942085734210526</v>
+        <v>0.9970961691095892</v>
       </c>
       <c r="S20">
-        <v>0.9942085734210526</v>
+        <v>0.9970961691095892</v>
       </c>
       <c r="T20">
-        <v>0.9914928226315788</v>
+        <v>0.9968350825570776</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.088980139865029</v>
+        <v>0.9506080052631579</v>
       </c>
       <c r="D21">
-        <v>0.9135493954117723</v>
+        <v>1.087502508947368</v>
       </c>
       <c r="E21">
-        <v>0.9416945885620734</v>
+        <v>0.9989847457894734</v>
       </c>
       <c r="F21">
-        <v>0.958411292827046</v>
+        <v>1.021067582105263</v>
       </c>
       <c r="G21">
-        <v>1.173352868256496</v>
+        <v>0.9244842489473686</v>
       </c>
       <c r="H21">
-        <v>0.9652905934511633</v>
+        <v>1.030155159473684</v>
       </c>
       <c r="I21">
-        <v>1.173352868256496</v>
+        <v>0.9244842489473686</v>
       </c>
       <c r="J21">
-        <v>0.9416945885620734</v>
+        <v>0.9989847457894734</v>
       </c>
       <c r="K21">
-        <v>0.9416945885620734</v>
+        <v>0.9989847457894734</v>
       </c>
       <c r="L21">
-        <v>0.9652905934511633</v>
+        <v>1.030155159473684</v>
       </c>
       <c r="M21">
-        <v>1.06932173085383</v>
+        <v>0.9773197042105264</v>
       </c>
       <c r="N21">
-        <v>1.06932173085383</v>
+        <v>0.9773197042105264</v>
       </c>
       <c r="O21">
-        <v>1.075874533857563</v>
+        <v>0.9684158045614035</v>
       </c>
       <c r="P21">
-        <v>1.026779350089911</v>
+        <v>0.9845413847368421</v>
       </c>
       <c r="Q21">
-        <v>1.026779350089911</v>
+        <v>0.9845413847368421</v>
       </c>
       <c r="R21">
-        <v>1.005508159707952</v>
+        <v>0.9881522249999999</v>
       </c>
       <c r="S21">
-        <v>1.005508159707952</v>
+        <v>0.9881522249999999</v>
       </c>
       <c r="T21">
-        <v>1.006879813062263</v>
+        <v>1.002133708421053</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.023475583699041</v>
+        <v>0.8881243999999999</v>
       </c>
       <c r="D22">
-        <v>0.9627373446283207</v>
+        <v>1.107467315789474</v>
       </c>
       <c r="E22">
-        <v>0.9960997677407645</v>
+        <v>1.07554887368421</v>
       </c>
       <c r="F22">
-        <v>0.9899307933374332</v>
+        <v>1.0520798</v>
       </c>
       <c r="G22">
-        <v>1.037000495124408</v>
+        <v>0.783314772631579</v>
       </c>
       <c r="H22">
-        <v>0.9873921225213264</v>
+        <v>1.042421773684211</v>
       </c>
       <c r="I22">
-        <v>1.037000495124408</v>
+        <v>0.783314772631579</v>
       </c>
       <c r="J22">
-        <v>0.9960997677407645</v>
+        <v>1.07554887368421</v>
       </c>
       <c r="K22">
-        <v>0.9960997677407645</v>
+        <v>1.07554887368421</v>
       </c>
       <c r="L22">
-        <v>0.9873921225213264</v>
+        <v>1.042421773684211</v>
       </c>
       <c r="M22">
-        <v>1.012196308822867</v>
+        <v>0.9128682731578948</v>
       </c>
       <c r="N22">
-        <v>1.012196308822867</v>
+        <v>0.9128682731578948</v>
       </c>
       <c r="O22">
-        <v>1.015956067114925</v>
+        <v>0.9046203154385966</v>
       </c>
       <c r="P22">
-        <v>1.006830795128833</v>
+        <v>0.96709514</v>
       </c>
       <c r="Q22">
-        <v>1.006830795128833</v>
+        <v>0.96709514</v>
       </c>
       <c r="R22">
-        <v>1.004148038281816</v>
+        <v>0.9942085734210526</v>
       </c>
       <c r="S22">
-        <v>1.004148038281816</v>
+        <v>0.9942085734210526</v>
       </c>
       <c r="T22">
-        <v>0.9994393511752157</v>
+        <v>0.9914928226315788</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.028305672081557</v>
+        <v>1.088980139865029</v>
       </c>
       <c r="D23">
-        <v>0.9642530786848523</v>
+        <v>0.9135493954117723</v>
       </c>
       <c r="E23">
-        <v>0.9878490413674782</v>
+        <v>0.9416945885620734</v>
       </c>
       <c r="F23">
-        <v>0.9873201833601503</v>
+        <v>0.958411292827046</v>
       </c>
       <c r="G23">
-        <v>1.049917634539595</v>
+        <v>1.173352868256496</v>
       </c>
       <c r="H23">
-        <v>0.9871025554848725</v>
+        <v>0.9652905934511633</v>
       </c>
       <c r="I23">
-        <v>1.049917634539595</v>
+        <v>1.173352868256496</v>
       </c>
       <c r="J23">
-        <v>0.9878490413674782</v>
+        <v>0.9416945885620734</v>
       </c>
       <c r="K23">
-        <v>0.9878490413674782</v>
+        <v>0.9416945885620734</v>
       </c>
       <c r="L23">
-        <v>0.9871025554848725</v>
+        <v>0.9652905934511633</v>
       </c>
       <c r="M23">
-        <v>1.018510095012234</v>
+        <v>1.06932173085383</v>
       </c>
       <c r="N23">
-        <v>1.018510095012234</v>
+        <v>1.06932173085383</v>
       </c>
       <c r="O23">
-        <v>1.021775287368675</v>
+        <v>1.075874533857563</v>
       </c>
       <c r="P23">
-        <v>1.008289743797315</v>
+        <v>1.026779350089911</v>
       </c>
       <c r="Q23">
-        <v>1.008289743797315</v>
+        <v>1.026779350089911</v>
       </c>
       <c r="R23">
-        <v>1.003179568189856</v>
+        <v>1.005508159707952</v>
       </c>
       <c r="S23">
-        <v>1.003179568189856</v>
+        <v>1.005508159707952</v>
       </c>
       <c r="T23">
-        <v>1.000791360919751</v>
+        <v>1.006879813062263</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.007259281257592</v>
+        <v>1.023475583699041</v>
       </c>
       <c r="D24">
-        <v>0.9919708427466659</v>
+        <v>0.9627373446283207</v>
       </c>
       <c r="E24">
-        <v>0.9966804973353023</v>
+        <v>0.9960997677407645</v>
       </c>
       <c r="F24">
-        <v>0.9965180959577649</v>
+        <v>0.9899307933374332</v>
       </c>
       <c r="G24">
-        <v>1.014606381594527</v>
+        <v>1.037000495124408</v>
       </c>
       <c r="H24">
-        <v>0.9964512627684543</v>
+        <v>0.9873921225213264</v>
       </c>
       <c r="I24">
-        <v>1.014606381594527</v>
+        <v>1.037000495124408</v>
       </c>
       <c r="J24">
-        <v>0.9966804973353023</v>
+        <v>0.9960997677407645</v>
       </c>
       <c r="K24">
-        <v>0.9966804973353023</v>
+        <v>0.9960997677407645</v>
       </c>
       <c r="L24">
-        <v>0.9964512627684543</v>
+        <v>0.9873921225213264</v>
       </c>
       <c r="M24">
-        <v>1.00552882218149</v>
+        <v>1.012196308822867</v>
       </c>
       <c r="N24">
-        <v>1.00552882218149</v>
+        <v>1.012196308822867</v>
       </c>
       <c r="O24">
-        <v>1.006105641873525</v>
+        <v>1.015956067114925</v>
       </c>
       <c r="P24">
-        <v>1.002579380566094</v>
+        <v>1.006830795128833</v>
       </c>
       <c r="Q24">
-        <v>1.002579380566094</v>
+        <v>1.006830795128833</v>
       </c>
       <c r="R24">
-        <v>1.001104659758396</v>
+        <v>1.004148038281816</v>
       </c>
       <c r="S24">
-        <v>1.001104659758396</v>
+        <v>1.004148038281816</v>
       </c>
       <c r="T24">
-        <v>1.000581060276718</v>
+        <v>0.9994393511752157</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9118421582359237</v>
+        <v>1.028305672081557</v>
       </c>
       <c r="D25">
-        <v>1.064305453278866</v>
+        <v>0.9642530786848523</v>
       </c>
       <c r="E25">
-        <v>1.077562315709237</v>
+        <v>0.9878490413674782</v>
       </c>
       <c r="F25">
-        <v>1.041894803115112</v>
+        <v>0.9873201833601503</v>
       </c>
       <c r="G25">
-        <v>0.8198690278584374</v>
+        <v>1.049917634539595</v>
       </c>
       <c r="H25">
-        <v>1.027216815334454</v>
+        <v>0.9871025554848725</v>
       </c>
       <c r="I25">
-        <v>0.8198690278584374</v>
+        <v>1.049917634539595</v>
       </c>
       <c r="J25">
-        <v>1.077562315709237</v>
+        <v>0.9878490413674782</v>
       </c>
       <c r="K25">
-        <v>1.077562315709237</v>
+        <v>0.9878490413674782</v>
       </c>
       <c r="L25">
-        <v>1.027216815334454</v>
+        <v>0.9871025554848725</v>
       </c>
       <c r="M25">
-        <v>0.9235429215964455</v>
+        <v>1.018510095012234</v>
       </c>
       <c r="N25">
-        <v>0.9235429215964455</v>
+        <v>1.018510095012234</v>
       </c>
       <c r="O25">
-        <v>0.9196426671429382</v>
+        <v>1.021775287368675</v>
       </c>
       <c r="P25">
-        <v>0.9748827196340425</v>
+        <v>1.008289743797315</v>
       </c>
       <c r="Q25">
-        <v>0.9748827196340425</v>
+        <v>1.008289743797315</v>
       </c>
       <c r="R25">
-        <v>1.000552618652841</v>
+        <v>1.003179568189856</v>
       </c>
       <c r="S25">
-        <v>1.000552618652841</v>
+        <v>1.003179568189856</v>
       </c>
       <c r="T25">
-        <v>0.9904484289220049</v>
+        <v>1.000791360919751</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9773730879435286</v>
+        <v>1.007259281257592</v>
       </c>
       <c r="D26">
-        <v>1.044901777202098</v>
+        <v>0.9919708427466659</v>
       </c>
       <c r="E26">
-        <v>0.9944188851973861</v>
+        <v>0.9966804973353023</v>
       </c>
       <c r="F26">
-        <v>1.009642719536478</v>
+        <v>0.9965180959577649</v>
       </c>
       <c r="G26">
-        <v>0.966261683442854</v>
+        <v>1.014606381594527</v>
       </c>
       <c r="H26">
-        <v>1.015907674474205</v>
+        <v>0.9964512627684543</v>
       </c>
       <c r="I26">
-        <v>0.966261683442854</v>
+        <v>1.014606381594527</v>
       </c>
       <c r="J26">
-        <v>0.9944188851973861</v>
+        <v>0.9966804973353023</v>
       </c>
       <c r="K26">
-        <v>0.9944188851973861</v>
+        <v>0.9966804973353023</v>
       </c>
       <c r="L26">
-        <v>1.015907674474205</v>
+        <v>0.9964512627684543</v>
       </c>
       <c r="M26">
-        <v>0.9910846789585297</v>
+        <v>1.00552882218149</v>
       </c>
       <c r="N26">
-        <v>0.9910846789585297</v>
+        <v>1.00552882218149</v>
       </c>
       <c r="O26">
-        <v>0.9865141486201959</v>
+        <v>1.006105641873525</v>
       </c>
       <c r="P26">
-        <v>0.9921960810381485</v>
+        <v>1.002579380566094</v>
       </c>
       <c r="Q26">
-        <v>0.9921960810381485</v>
+        <v>1.002579380566094</v>
       </c>
       <c r="R26">
-        <v>0.9927517820779579</v>
+        <v>1.001104659758396</v>
       </c>
       <c r="S26">
-        <v>0.9927517820779579</v>
+        <v>1.001104659758396</v>
       </c>
       <c r="T26">
-        <v>1.001417637966092</v>
+        <v>1.000581060276718</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9933000054647426</v>
+        <v>0.9118421582359237</v>
       </c>
       <c r="D27">
-        <v>1.007657445091681</v>
+        <v>1.064305453278866</v>
       </c>
       <c r="E27">
-        <v>1.003933887965716</v>
+        <v>1.077562315709237</v>
       </c>
       <c r="F27">
-        <v>1.002956583503646</v>
+        <v>1.041894803115112</v>
       </c>
       <c r="G27">
-        <v>0.988365905385303</v>
+        <v>0.8198690278584374</v>
       </c>
       <c r="H27">
-        <v>1.002554397092649</v>
+        <v>1.027216815334454</v>
       </c>
       <c r="I27">
-        <v>0.988365905385303</v>
+        <v>0.8198690278584374</v>
       </c>
       <c r="J27">
-        <v>1.003933887965716</v>
+        <v>1.077562315709237</v>
       </c>
       <c r="K27">
-        <v>1.003933887965716</v>
+        <v>1.077562315709237</v>
       </c>
       <c r="L27">
-        <v>1.002554397092649</v>
+        <v>1.027216815334454</v>
       </c>
       <c r="M27">
-        <v>0.9954601512389762</v>
+        <v>0.9235429215964455</v>
       </c>
       <c r="N27">
-        <v>0.9954601512389762</v>
+        <v>0.9235429215964455</v>
       </c>
       <c r="O27">
-        <v>0.994740102647565</v>
+        <v>0.9196426671429382</v>
       </c>
       <c r="P27">
-        <v>0.9982847301478895</v>
+        <v>0.9748827196340425</v>
       </c>
       <c r="Q27">
-        <v>0.9982847301478895</v>
+        <v>0.9748827196340425</v>
       </c>
       <c r="R27">
-        <v>0.9996970196023461</v>
+        <v>1.000552618652841</v>
       </c>
       <c r="S27">
-        <v>0.9996970196023461</v>
+        <v>1.000552618652841</v>
       </c>
       <c r="T27">
-        <v>0.9997947040839562</v>
+        <v>0.9904484289220049</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9884326094977288</v>
+        <v>0.9773730879435286</v>
       </c>
       <c r="D28">
-        <v>1.01090446792123</v>
+        <v>1.044901777202098</v>
       </c>
       <c r="E28">
-        <v>1.007911815810033</v>
+        <v>0.9944188851973861</v>
       </c>
       <c r="F28">
-        <v>1.005412259469697</v>
+        <v>1.009642719536478</v>
       </c>
       <c r="G28">
-        <v>0.9773685672452588</v>
+        <v>0.966261683442854</v>
       </c>
       <c r="H28">
-        <v>1.004383647935712</v>
+        <v>1.015907674474205</v>
       </c>
       <c r="I28">
-        <v>0.9773685672452588</v>
+        <v>0.966261683442854</v>
       </c>
       <c r="J28">
-        <v>1.007911815810033</v>
+        <v>0.9944188851973861</v>
       </c>
       <c r="K28">
-        <v>1.007911815810033</v>
+        <v>0.9944188851973861</v>
       </c>
       <c r="L28">
-        <v>1.004383647935712</v>
+        <v>1.015907674474205</v>
       </c>
       <c r="M28">
-        <v>0.9908761075904853</v>
+        <v>0.9910846789585297</v>
       </c>
       <c r="N28">
-        <v>0.9908761075904853</v>
+        <v>0.9910846789585297</v>
       </c>
       <c r="O28">
-        <v>0.9900616082262331</v>
+        <v>0.9865141486201959</v>
       </c>
       <c r="P28">
-        <v>0.9965546769970013</v>
+        <v>0.9921960810381485</v>
       </c>
       <c r="Q28">
-        <v>0.9965546769970013</v>
+        <v>0.9921960810381485</v>
       </c>
       <c r="R28">
-        <v>0.9993939617002592</v>
+        <v>0.9927517820779579</v>
       </c>
       <c r="S28">
-        <v>0.9993939617002592</v>
+        <v>0.9927517820779579</v>
       </c>
       <c r="T28">
-        <v>0.99906889464661</v>
+        <v>1.001417637966092</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9933000054647426</v>
+      </c>
+      <c r="D29">
+        <v>1.007657445091681</v>
+      </c>
+      <c r="E29">
+        <v>1.003933887965716</v>
+      </c>
+      <c r="F29">
+        <v>1.002956583503646</v>
+      </c>
+      <c r="G29">
+        <v>0.988365905385303</v>
+      </c>
+      <c r="H29">
+        <v>1.002554397092649</v>
+      </c>
+      <c r="I29">
+        <v>0.988365905385303</v>
+      </c>
+      <c r="J29">
+        <v>1.003933887965716</v>
+      </c>
+      <c r="K29">
+        <v>1.003933887965716</v>
+      </c>
+      <c r="L29">
+        <v>1.002554397092649</v>
+      </c>
+      <c r="M29">
+        <v>0.9954601512389762</v>
+      </c>
+      <c r="N29">
+        <v>0.9954601512389762</v>
+      </c>
+      <c r="O29">
+        <v>0.994740102647565</v>
+      </c>
+      <c r="P29">
+        <v>0.9982847301478895</v>
+      </c>
+      <c r="Q29">
+        <v>0.9982847301478895</v>
+      </c>
+      <c r="R29">
+        <v>0.9996970196023461</v>
+      </c>
+      <c r="S29">
+        <v>0.9996970196023461</v>
+      </c>
+      <c r="T29">
+        <v>0.9997947040839562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9884326094977288</v>
+      </c>
+      <c r="D30">
+        <v>1.01090446792123</v>
+      </c>
+      <c r="E30">
+        <v>1.007911815810033</v>
+      </c>
+      <c r="F30">
+        <v>1.005412259469697</v>
+      </c>
+      <c r="G30">
+        <v>0.9773685672452588</v>
+      </c>
+      <c r="H30">
+        <v>1.004383647935712</v>
+      </c>
+      <c r="I30">
+        <v>0.9773685672452588</v>
+      </c>
+      <c r="J30">
+        <v>1.007911815810033</v>
+      </c>
+      <c r="K30">
+        <v>1.007911815810033</v>
+      </c>
+      <c r="L30">
+        <v>1.004383647935712</v>
+      </c>
+      <c r="M30">
+        <v>0.9908761075904853</v>
+      </c>
+      <c r="N30">
+        <v>0.9908761075904853</v>
+      </c>
+      <c r="O30">
+        <v>0.9900616082262331</v>
+      </c>
+      <c r="P30">
+        <v>0.9965546769970013</v>
+      </c>
+      <c r="Q30">
+        <v>0.9965546769970013</v>
+      </c>
+      <c r="R30">
+        <v>0.9993939617002592</v>
+      </c>
+      <c r="S30">
+        <v>0.9993939617002592</v>
+      </c>
+      <c r="T30">
+        <v>0.99906889464661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.009199475722797</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9770221839911067</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.006707556628006</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9962188036253723</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.011957899143712</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9919024395527848</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.011957899143712</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.006707556628006</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.006707556628006</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9919024395527848</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.001930169348249</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.001930169348249</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.004353271473098</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.003522631774834</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.003522631774834</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.004318862988127</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.004318862988127</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9988347264439632</v>
       </c>
     </row>
